--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01322E8F-8C95-4C50-8D0B-1626DD958DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB66D03-AA56-4112-AD3E-34452D3C2C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="237">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1167,16 +1167,20 @@
   <si>
     <t>PROJECT 3</t>
   </si>
+  <si>
+    <t>VAT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$₦-466]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$₦-46A]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$₦-468]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="63" x14ac:knownFonts="1">
     <font>
@@ -2043,11 +2047,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2402,15 +2407,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="59" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2443,65 +2444,116 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2512,8 +2564,32 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2522,99 +2598,30 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2627,16 +2634,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="30" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="30" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -6027,11 +6036,11 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73:B76"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6052,33 +6061,33 @@
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="167" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="161"/>
-      <c r="H2" s="162"/>
+      <c r="B2" s="159"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="172"/>
+      <c r="B3" s="168"/>
       <c r="D3" s="157"/>
-      <c r="E3" s="172"/>
-      <c r="H3" s="172"/>
+      <c r="E3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
@@ -6095,7 +6104,7 @@
       </c>
       <c r="B5" s="69"/>
       <c r="D5" s="157"/>
-      <c r="E5" s="173"/>
+      <c r="E5" s="169"/>
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6113,7 +6122,7 @@
       </c>
       <c r="B7" s="71"/>
       <c r="D7" s="157"/>
-      <c r="E7" s="173"/>
+      <c r="E7" s="169"/>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6136,7 +6145,7 @@
         <v>196</v>
       </c>
       <c r="B10" s="75"/>
-      <c r="D10" s="163"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="75"/>
       <c r="H10" s="75"/>
     </row>
@@ -6145,7 +6154,7 @@
         <v>197</v>
       </c>
       <c r="B11" s="77"/>
-      <c r="D11" s="163"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="77"/>
       <c r="H11" s="77"/>
     </row>
@@ -6154,7 +6163,7 @@
         <v>198</v>
       </c>
       <c r="B12" s="78"/>
-      <c r="D12" s="163"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="78"/>
       <c r="H12" s="78"/>
     </row>
@@ -6163,7 +6172,7 @@
         <v>199</v>
       </c>
       <c r="B13" s="77"/>
-      <c r="D13" s="163"/>
+      <c r="D13" s="162"/>
       <c r="E13" s="77"/>
       <c r="H13" s="77"/>
     </row>
@@ -6172,7 +6181,7 @@
         <v>200</v>
       </c>
       <c r="B14" s="78"/>
-      <c r="D14" s="163"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="78"/>
       <c r="H14" s="78"/>
     </row>
@@ -6181,40 +6190,48 @@
         <v>201</v>
       </c>
       <c r="B15" s="77"/>
-      <c r="D15" s="163"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="77"/>
-      <c r="H15" s="178"/>
+      <c r="H15" s="174"/>
     </row>
     <row r="16" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="80"/>
-      <c r="D16" s="163"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="80"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="165"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="158"/>
-      <c r="H17" s="166"/>
+    <row r="17" spans="1:9" s="245" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="244">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D17" s="246"/>
+      <c r="E17" s="247">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H17" s="248">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="164">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="168">
+      <c r="D18" s="165"/>
+      <c r="E18" s="164">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="H18" s="168">
+      <c r="H18" s="164">
         <f>'PC 3'!B12</f>
         <v>0</v>
       </c>
@@ -6224,7 +6241,7 @@
         <v>203</v>
       </c>
       <c r="B19" s="82"/>
-      <c r="D19" s="163"/>
+      <c r="D19" s="162"/>
       <c r="E19" s="82"/>
       <c r="H19" s="82"/>
       <c r="I19" t="str">
@@ -6233,29 +6250,29 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="163"/>
+      <c r="D20" s="162"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="163"/>
+      <c r="D21" s="162"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="163"/>
+      <c r="D22" s="162"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="160"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="161"/>
-      <c r="H23" s="162"/>
+      <c r="B23" s="159"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="160"/>
+      <c r="H23" s="161"/>
     </row>
     <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="84"/>
-      <c r="D24" s="163"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="84"/>
       <c r="H24" s="84"/>
     </row>
@@ -6264,7 +6281,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="86"/>
-      <c r="D25" s="163"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="86"/>
       <c r="H25" s="86"/>
     </row>
@@ -6273,7 +6290,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="88"/>
-      <c r="D26" s="163"/>
+      <c r="D26" s="162"/>
       <c r="E26" s="88"/>
       <c r="H26" s="88"/>
     </row>
@@ -6282,7 +6299,7 @@
         <v>185</v>
       </c>
       <c r="B27" s="88"/>
-      <c r="D27" s="163"/>
+      <c r="D27" s="162"/>
       <c r="E27" s="88"/>
       <c r="H27" s="88"/>
     </row>
@@ -6291,7 +6308,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="88"/>
-      <c r="D28" s="163"/>
+      <c r="D28" s="162"/>
       <c r="E28" s="88"/>
       <c r="H28" s="88"/>
     </row>
@@ -6300,7 +6317,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="88"/>
-      <c r="D29" s="163"/>
+      <c r="D29" s="162"/>
       <c r="E29" s="88"/>
       <c r="H29" s="88"/>
     </row>
@@ -6309,7 +6326,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="88"/>
-      <c r="D30" s="163"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="88"/>
       <c r="H30" s="88"/>
     </row>
@@ -6318,25 +6335,25 @@
         <v>20</v>
       </c>
       <c r="B31" s="88"/>
-      <c r="D31" s="163"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="88"/>
       <c r="H31" s="88"/>
     </row>
-    <row r="32" spans="1:9" s="176" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="174" t="s">
+    <row r="32" spans="1:9" s="172" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="175"/>
-      <c r="H32" s="175"/>
+      <c r="B32" s="171"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="171"/>
+      <c r="H32" s="171"/>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="88"/>
-      <c r="D33" s="163"/>
+      <c r="D33" s="162"/>
       <c r="E33" s="88"/>
       <c r="H33" s="88"/>
     </row>
@@ -6345,16 +6362,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="88"/>
-      <c r="D34" s="163"/>
+      <c r="D34" s="162"/>
       <c r="E34" s="88"/>
       <c r="H34" s="88"/>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="176"/>
+      <c r="D35" s="162"/>
       <c r="E35" s="94"/>
       <c r="H35" s="94"/>
     </row>
@@ -6363,31 +6380,31 @@
         <v>205</v>
       </c>
       <c r="B36" s="90"/>
-      <c r="D36" s="163"/>
+      <c r="D36" s="162"/>
       <c r="E36" s="93"/>
       <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="163"/>
+      <c r="D37" s="162"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="163"/>
+      <c r="D38" s="162"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="158" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="161"/>
-      <c r="H39" s="162"/>
+      <c r="B39" s="159"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="160"/>
+      <c r="H39" s="161"/>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="92"/>
-      <c r="D40" s="163"/>
+      <c r="D40" s="162"/>
       <c r="E40" s="93"/>
       <c r="H40" s="93"/>
     </row>
@@ -6396,7 +6413,7 @@
         <v>142</v>
       </c>
       <c r="B41" s="88"/>
-      <c r="D41" s="163"/>
+      <c r="D41" s="162"/>
       <c r="E41" s="93"/>
       <c r="H41" s="93"/>
     </row>
@@ -6405,7 +6422,7 @@
         <v>207</v>
       </c>
       <c r="B42" s="88"/>
-      <c r="D42" s="163"/>
+      <c r="D42" s="162"/>
       <c r="E42" s="93"/>
       <c r="H42" s="93"/>
     </row>
@@ -6414,7 +6431,7 @@
         <v>141</v>
       </c>
       <c r="B43" s="88"/>
-      <c r="D43" s="163"/>
+      <c r="D43" s="162"/>
       <c r="E43" s="93"/>
       <c r="H43" s="93"/>
     </row>
@@ -6423,7 +6440,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="88"/>
-      <c r="D44" s="163"/>
+      <c r="D44" s="162"/>
       <c r="E44" s="152"/>
       <c r="F44" s="153"/>
       <c r="G44" s="153"/>
@@ -6434,7 +6451,7 @@
         <v>137</v>
       </c>
       <c r="B45" s="88"/>
-      <c r="D45" s="163"/>
+      <c r="D45" s="162"/>
       <c r="E45" s="88"/>
       <c r="H45" s="88"/>
     </row>
@@ -6443,7 +6460,7 @@
         <v>144</v>
       </c>
       <c r="B46" s="88"/>
-      <c r="D46" s="163"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="93"/>
       <c r="H46" s="93"/>
     </row>
@@ -6452,7 +6469,7 @@
         <v>178</v>
       </c>
       <c r="B47" s="88"/>
-      <c r="D47" s="163"/>
+      <c r="D47" s="162"/>
       <c r="E47" s="93"/>
       <c r="H47" s="93"/>
     </row>
@@ -6461,7 +6478,7 @@
         <v>179</v>
       </c>
       <c r="B48" s="88"/>
-      <c r="D48" s="163"/>
+      <c r="D48" s="162"/>
       <c r="E48" s="93"/>
       <c r="H48" s="93"/>
     </row>
@@ -6470,7 +6487,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="88"/>
-      <c r="D49" s="163"/>
+      <c r="D49" s="162"/>
       <c r="E49" s="93"/>
       <c r="H49" s="93"/>
     </row>
@@ -6479,7 +6496,7 @@
         <v>146</v>
       </c>
       <c r="B50" s="88"/>
-      <c r="D50" s="163"/>
+      <c r="D50" s="162"/>
       <c r="E50" s="93"/>
       <c r="H50" s="93"/>
     </row>
@@ -6488,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="88"/>
-      <c r="D51" s="163"/>
+      <c r="D51" s="162"/>
       <c r="E51" s="93"/>
       <c r="H51" s="93"/>
     </row>
@@ -6497,7 +6514,7 @@
         <v>147</v>
       </c>
       <c r="B52" s="88"/>
-      <c r="D52" s="163"/>
+      <c r="D52" s="162"/>
       <c r="E52" s="88"/>
       <c r="H52" s="88"/>
     </row>
@@ -6506,7 +6523,7 @@
         <v>148</v>
       </c>
       <c r="B53" s="88"/>
-      <c r="D53" s="163"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="93"/>
       <c r="H53" s="93"/>
     </row>
@@ -6515,7 +6532,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="88"/>
-      <c r="D54" s="163"/>
+      <c r="D54" s="162"/>
       <c r="E54" s="93"/>
       <c r="H54" s="93"/>
     </row>
@@ -6524,7 +6541,7 @@
         <v>149</v>
       </c>
       <c r="B55" s="88"/>
-      <c r="D55" s="163"/>
+      <c r="D55" s="162"/>
       <c r="E55" s="93"/>
       <c r="H55" s="93"/>
     </row>
@@ -6533,7 +6550,7 @@
         <v>208</v>
       </c>
       <c r="B56" s="88"/>
-      <c r="D56" s="163"/>
+      <c r="D56" s="162"/>
       <c r="E56" s="93"/>
       <c r="H56" s="93"/>
     </row>
@@ -6542,7 +6559,7 @@
         <v>138</v>
       </c>
       <c r="B57" s="88"/>
-      <c r="D57" s="163"/>
+      <c r="D57" s="162"/>
       <c r="E57" s="93"/>
       <c r="H57" s="93"/>
     </row>
@@ -6551,38 +6568,38 @@
         <v>157</v>
       </c>
       <c r="B58" s="88"/>
-      <c r="D58" s="163"/>
+      <c r="D58" s="162"/>
       <c r="E58" s="93"/>
       <c r="H58" s="93"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D59" s="163"/>
+      <c r="D59" s="162"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D60" s="163"/>
+      <c r="D60" s="162"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="161"/>
-      <c r="H61" s="162"/>
+      <c r="B61" s="159"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="160"/>
+      <c r="H61" s="161"/>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
         <v>158</v>
       </c>
       <c r="B62" s="92"/>
-      <c r="D62" s="163"/>
+      <c r="D62" s="162"/>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="87" t="s">
         <v>159</v>
       </c>
       <c r="B63" s="88"/>
-      <c r="D63" s="163"/>
+      <c r="D63" s="162"/>
     </row>
     <row r="64" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
@@ -6592,35 +6609,35 @@
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="D64" s="163"/>
+      <c r="D64" s="162"/>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="88"/>
-      <c r="D65" s="163"/>
+      <c r="D65" s="162"/>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87" t="s">
         <v>162</v>
       </c>
       <c r="B66" s="88"/>
-      <c r="D66" s="163"/>
+      <c r="D66" s="162"/>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="88"/>
-      <c r="D67" s="163"/>
+      <c r="D67" s="162"/>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87" t="s">
         <v>164</v>
       </c>
       <c r="B68" s="88"/>
-      <c r="D68" s="163"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="88"/>
       <c r="H68" s="88"/>
     </row>
@@ -6629,24 +6646,24 @@
         <v>165</v>
       </c>
       <c r="B69" s="90"/>
-      <c r="D69" s="163"/>
+      <c r="D69" s="162"/>
       <c r="E69" s="90"/>
       <c r="H69" s="90"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D70" s="163"/>
+      <c r="D70" s="162"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D71" s="163"/>
+      <c r="D71" s="162"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="159" t="s">
+      <c r="A72" s="158" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="160"/>
-      <c r="D72" s="163"/>
-      <c r="E72" s="161"/>
-      <c r="H72" s="162"/>
+      <c r="B72" s="159"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="160"/>
+      <c r="H72" s="161"/>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="91" t="s">
@@ -6904,24 +6921,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="str">
+      <c r="A2" s="234" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6962,24 +6979,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="str">
+      <c r="A2" s="234" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7020,24 +7037,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="str">
+      <c r="A2" s="234" t="str">
         <f>'PC 3'!B24 &amp; " BY " &amp; 'PC 3'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7073,142 +7090,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="246"/>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="246"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="246"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="246"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="A4" s="236"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="246"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="246"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="247" t="str">
+      <c r="A7" s="237" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="241"/>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="247">
+      <c r="A9" s="237">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="240">
+      <c r="A10" s="235">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="240">
+      <c r="A11" s="235">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="240">
+      <c r="A12" s="235">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="240">
+      <c r="A13" s="235">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="240"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="241" t="s">
+      <c r="A15" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="242" t="str">
+      <c r="A16" s="240" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
         <v>0 &amp; 0 &amp; 0</v>
       </c>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="243" t="str">
+      <c r="A18" s="241" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" &amp; "&amp;'PC 3'!B64&amp;" dated "&amp;'PC 1'!B65 &amp;" &amp; "&amp;'PC 2'!B65&amp;" &amp; "&amp;'PC 3'!B65 &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 &amp; 0 dated 0 &amp; 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="244"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="244"/>
-      <c r="D19" s="244"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -7281,32 +7298,357 @@
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="245" t="s">
+      <c r="A25" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="245"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="245"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="240"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
+      <c r="A26" s="235"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="240" t="s">
+      <c r="A27" s="235" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="240"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
+      <c r="A28" s="235"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="239" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+    </row>
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A31" s="31"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="236"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="236"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="237" t="str">
+        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="237">
+        <f>'PC 1'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="235">
+        <f>'PC 1'!B60</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="235">
+        <f>'PC 1'!B61</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="235">
+        <f>'PC 1'!B62</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="235">
+        <f>'PC 1'!B63</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="235"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="240" t="str">
+        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
+        <v>0 &amp; 0 &amp; 0</v>
+      </c>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="241" t="str">
+        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="242"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <f>'PC 1'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f>'PC 1'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="str">
+        <f>'PC 1'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="52">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53">
+        <f>'PC 2'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <f>'PC 2'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>'PC 2'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A23" s="52">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <f>'PC 3'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <f>'PC 3'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>'PC 3'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="243" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="243"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="235"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="235" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="235"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" s="239" t="s">
@@ -7377,331 +7719,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="246"/>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="246"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="246"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="246"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="246"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="246"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="247" t="str">
-        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>0                                                                             0</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="241"/>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="247">
-        <f>'PC 1'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="240">
-        <f>'PC 1'!B60</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="240">
-        <f>'PC 1'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="240">
-        <f>'PC 1'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="240">
-        <f>'PC 1'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="240"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="241" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="242" t="str">
-        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
-        <v>0 &amp; 0 &amp; 0</v>
-      </c>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="243" t="str">
-        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="244"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="244"/>
-      <c r="D19" s="244"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'PC 1'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
-        <f>'PC 1'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="55" t="str">
-        <f>'PC 1'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
-        <v>2</v>
-      </c>
-      <c r="B22" s="53">
-        <f>'PC 2'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
-        <f>'PC 2'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f>'PC 2'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <f>'PC 3'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
-        <f>'PC 3'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>'PC 3'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="245" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="245"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="245"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="240"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="240" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="240"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="239" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="239" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-    </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A34" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
@@ -7709,8 +7726,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -7819,11 +7836,14 @@
         <v>108</v>
       </c>
       <c r="B8" s="127">
-        <f>7.5%*B7</f>
+        <f>D8*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
+      <c r="D8" s="249">
+        <f>DETAILS!B17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:9" s="122" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -8516,7 +8536,7 @@
     </row>
     <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2oEhdmMT148dPIMr8/Ow1ikqstYDZm9nDnRPTfN8ooFa0wSQJmEcxzKyn4Ts9h3UnwEicft7Q/u5wdfHLkMxyw==" saltValue="n9ZVxWAj9OViXrZN78QLdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mQ9RoLk2b6aM5F/8R6AwAnlNE0/i7UL2NxvYCFnCaUUYki/h1HjBFvTIk1U75452NYCZ2derQJCybDzLHAoiJg==" saltValue="7+7P24tKQsuPvEXsWqusOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8531,7 +8551,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -8639,11 +8659,14 @@
         <v>108</v>
       </c>
       <c r="B8" s="104">
-        <f>7.5%*B7</f>
+        <f>D8*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="250">
+        <f>DETAILS!E17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="E8" s="98"/>
     </row>
     <row r="9" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -9340,7 +9363,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GElGcv8kuxTvlwMYALAiD53la5/tmLDtNHX3nCViQrGKxzOzDbYbgAqN6v+ZaE0jUESiouG0xpVfvOsvHZKQCA==" saltValue="gximfniRGDTrdYHRG6l38w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VPyUMCglqBFh9/zTnOuL/KcwbMvLEp9RX8ZUpeM7ETBfnoMDsHWxcODQNR2TAYrAWZaErUorqtZRvvouKNWFDA==" saltValue="UCtxLH2AmJEmKFSS54ez6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9354,7 +9377,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -9462,11 +9485,14 @@
         <v>108</v>
       </c>
       <c r="B8" s="104">
-        <f>7.5%*B7</f>
+        <f>D8*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="250">
+        <f>DETAILS!H17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="E8" s="98"/>
     </row>
     <row r="9" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -10163,7 +10189,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TfSRZooYfD8kHRsoqmCWtuZNrK1RwisCRUfD4h/KA86yrsribMgPaRkAUKyZJ7T0i43k/yFLzWF0Ipkx96DgnQ==" saltValue="X8odW0kVr+WrTYvwOCqTKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RGyZ7ky0Kn0e8X6fHYoEgJ42xS7/0iGSnbYSH8CBWuSRg7A5ssLH0WMS4Fk5qtm+4pd00GRusHbQMs6ZTjG+kQ==" saltValue="MHpAuKYTS9S1uXZXhbnxnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10200,79 +10226,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="183">
+      <c r="A2" s="187">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10281,16 +10307,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="191">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -10299,16 +10325,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182">
+      <c r="C9" s="192">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -10317,16 +10343,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="182">
+      <c r="C10" s="192">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -10335,16 +10361,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="199">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -10353,16 +10379,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="182">
+      <c r="C12" s="192">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -10371,16 +10397,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="182">
+      <c r="C13" s="192">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -10389,16 +10415,16 @@
       <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="182">
+      <c r="C14" s="192">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -10407,16 +10433,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="192">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -10425,16 +10451,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="192">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -10443,16 +10469,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="192">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10461,16 +10487,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="192">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10479,16 +10505,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="177">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -10497,16 +10523,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="177">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -10515,16 +10541,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="177">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -10533,16 +10559,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="177">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -10551,16 +10577,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="177">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -10569,16 +10595,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="196">
+      <c r="C24" s="190">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -10587,16 +10613,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="182">
+      <c r="C25" s="192">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -10605,16 +10631,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="177">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -10623,16 +10649,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="177">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -10641,16 +10667,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="181">
+      <c r="C28" s="177">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -10659,328 +10685,328 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="189" t="str">
+      <c r="A38" s="194" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="189"/>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
+      <c r="A40" s="194"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="193"/>
-      <c r="B41" s="193"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
+      <c r="A41" s="197"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="193"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="191" t="s">
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="188">
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="193">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="190" t="s">
+      <c r="A45" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="188">
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="193">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="199"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="202">
+      <c r="A46" s="180"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="185">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="200" t="s">
+      <c r="A47" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="200"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="200"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="181"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="200"/>
-      <c r="B49" s="200"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="200"/>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="194" t="s">
+      <c r="A50" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="195"/>
-      <c r="C50" s="201" t="s">
+      <c r="B50" s="183"/>
+      <c r="C50" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="200"/>
-      <c r="E50" s="203" t="s">
+      <c r="D50" s="181"/>
+      <c r="E50" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="197" t="s">
+      <c r="A51" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198" t="s">
+      <c r="B51" s="178"/>
+      <c r="C51" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="198"/>
-      <c r="E51" s="183" t="s">
+      <c r="D51" s="179"/>
+      <c r="E51" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="197" t="s">
+      <c r="A52" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="197"/>
-      <c r="C52" s="198" t="s">
+      <c r="B52" s="178"/>
+      <c r="C52" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="198"/>
-      <c r="E52" s="183" t="s">
+      <c r="D52" s="179"/>
+      <c r="E52" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="183"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10989,6 +11015,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/ZL9vw+w/MGVh2p/pN9qyKFCBd/lZ99u5FVQ7UHIdVPr4D9BMDskpB6vnGNgevMIW9jzz4S6XWT/jT1sAjtk9Q==" saltValue="OfD4XRZjXkwA548NNd0ydA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -11005,46 +11071,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11084,79 +11110,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="183">
+      <c r="A2" s="187">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11165,16 +11191,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="191">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -11183,16 +11209,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182">
+      <c r="C9" s="192">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -11201,16 +11227,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="182">
+      <c r="C10" s="192">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -11219,16 +11245,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="199">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -11237,16 +11263,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="182">
+      <c r="C12" s="192">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -11255,16 +11281,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="182">
+      <c r="C13" s="192">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -11273,16 +11299,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="182">
+      <c r="C14" s="192">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -11291,16 +11317,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="192">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -11309,16 +11335,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="192">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -11327,16 +11353,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="192">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -11345,16 +11371,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="192">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -11363,16 +11389,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="177">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -11381,16 +11407,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="177">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -11399,16 +11425,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="177">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -11417,16 +11443,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="177">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -11435,16 +11461,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="177">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -11453,16 +11479,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="196">
+      <c r="C24" s="190">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11471,16 +11497,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="182">
+      <c r="C25" s="192">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11489,16 +11515,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="177">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -11507,16 +11533,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="177">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -11525,16 +11551,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="181">
+      <c r="C28" s="177">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -11543,316 +11569,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="189" t="str">
+      <c r="A38" s="194" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="189"/>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
+      <c r="A40" s="194"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="193"/>
-      <c r="B41" s="193"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
+      <c r="A41" s="197"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="193"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="191" t="s">
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="188">
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="193">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="190" t="s">
+      <c r="A45" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="188">
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="193">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="199"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="202">
+      <c r="A46" s="180"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="185">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="200"/>
-      <c r="B47" s="200"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="200"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="181"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="201" t="s">
+      <c r="B49" s="183"/>
+      <c r="C49" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="200"/>
-      <c r="E49" s="203" t="s">
+      <c r="D49" s="181"/>
+      <c r="E49" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="197" t="s">
+      <c r="A50" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="197"/>
-      <c r="C50" s="198" t="s">
+      <c r="B50" s="178"/>
+      <c r="C50" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="198"/>
-      <c r="E50" s="183" t="s">
+      <c r="D50" s="179"/>
+      <c r="E50" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="197" t="s">
+      <c r="A51" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198" t="s">
+      <c r="B51" s="178"/>
+      <c r="C51" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="198"/>
-      <c r="E51" s="183" t="s">
+      <c r="D51" s="179"/>
+      <c r="E51" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11861,46 +11887,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="AenHlGm4TV7t0opFwq2YCN74BKID9vz4MeNYqsBvZDb4BNu3LlpMDiComVs+HCWwscZB44Q4Xqa1sqTwx0AGng==" saltValue="/xFXwSqYnMPgQBt7FYEU+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -11917,6 +11903,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11955,79 +11981,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="183">
+      <c r="A2" s="187">
         <f>'PC 3'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 3'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12036,16 +12062,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="191">
         <f>'PC 3'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -12054,16 +12080,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182">
+      <c r="C9" s="192">
         <f>'PC 3'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -12072,16 +12098,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="182">
+      <c r="C10" s="192">
         <f>'PC 3'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -12090,16 +12116,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="199">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -12108,16 +12134,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="182">
+      <c r="C12" s="192">
         <f>'PC 3'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -12126,16 +12152,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="182">
+      <c r="C13" s="192">
         <f>'PC 3'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -12144,16 +12170,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="182">
+      <c r="C14" s="192">
         <f>'PC 3'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -12162,16 +12188,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="192">
         <f>'PC 3'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -12180,16 +12206,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="192">
         <f>'PC 3'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -12198,16 +12224,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="192">
         <f>'PC 3'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -12216,16 +12242,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="192">
         <f>'PC 3'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -12234,16 +12260,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="177">
         <f>'PC 3'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -12252,16 +12278,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="177">
         <f>'PC 3'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -12270,16 +12296,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="177">
         <f>'PC 3'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -12288,16 +12314,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="177">
         <f>'PC 3'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -12306,16 +12332,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="177">
         <f>'PC 3'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -12324,16 +12350,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="196">
+      <c r="C24" s="190">
         <f>'PC 3'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -12342,16 +12368,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="182">
+      <c r="C25" s="192">
         <f>'PC 3'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -12360,16 +12386,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="177">
         <f>'PC 3'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -12378,16 +12404,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="177">
         <f>'PC 3'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -12396,16 +12422,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="181">
+      <c r="C28" s="177">
         <f>'PC 3'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -12414,316 +12440,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="189" t="str">
+      <c r="A38" s="194" t="str">
         <f>'PC 3'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="189"/>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
+      <c r="A40" s="194"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="193"/>
-      <c r="B41" s="193"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
+      <c r="A41" s="197"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="193"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="191" t="s">
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="188">
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="193">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="190" t="s">
+      <c r="A45" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="188">
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="193">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="199"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="202">
+      <c r="A46" s="180"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="185">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="200"/>
-      <c r="B47" s="200"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="200"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="181"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="201" t="s">
+      <c r="B49" s="183"/>
+      <c r="C49" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="200"/>
-      <c r="E49" s="203" t="s">
+      <c r="D49" s="181"/>
+      <c r="E49" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="197" t="s">
+      <c r="A50" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="197"/>
-      <c r="C50" s="198" t="s">
+      <c r="B50" s="178"/>
+      <c r="C50" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="198"/>
-      <c r="E50" s="183" t="s">
+      <c r="D50" s="179"/>
+      <c r="E50" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="197" t="s">
+      <c r="A51" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198" t="s">
+      <c r="B51" s="178"/>
+      <c r="C51" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="198"/>
-      <c r="E51" s="183" t="s">
+      <c r="D51" s="179"/>
+      <c r="E51" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12732,12 +12758,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qLIk4orf7RZPI3dP68zKKxtDqL4frOEWZhNyL6Zib5r/Hozz1t24W4C6KelgCJUuulafSp9+iJ/PKb1NbXIqJQ==" saltValue="2mcxvoCaVqQ1H0WK6vZToA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:I49"/>
@@ -12752,42 +12808,12 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12821,64 +12847,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
     </row>
     <row r="2" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="226" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
     </row>
     <row r="3" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
     </row>
     <row r="4" spans="1:8" s="134" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="218">
+      <c r="B5" s="228">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="170" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="166" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="135">
@@ -12887,47 +12913,47 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="218">
+      <c r="B6" s="228">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="170"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="218">
+      <c r="B7" s="228">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="170"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="135"/>
     </row>
-    <row r="8" spans="1:8" s="136" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.85">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
+      <c r="A8" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="218">
+      <c r="B8" s="228">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
       <c r="G8" s="139" t="s">
         <v>176</v>
       </c>
@@ -12936,18 +12962,18 @@
         <v>0/0/0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="136" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.85">
-      <c r="A9" s="170" t="s">
+    <row r="9" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
+      <c r="A9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="208" t="str">
+      <c r="B9" s="229" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
       <c r="G9" s="139" t="s">
         <v>214</v>
       </c>
@@ -12957,17 +12983,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="209" t="str">
+      <c r="B10" s="230" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
         <v>0/0/0</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="139" t="s">
         <v>113</v>
       </c>
@@ -12979,14 +13005,14 @@
       <c r="A11" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="208">
+      <c r="B11" s="229">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="208"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
       <c r="G11" s="139" t="s">
         <v>219</v>
       </c>
@@ -12996,211 +13022,211 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="207"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+      <c r="A13" s="226"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="211"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="133" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="213" t="s">
+      <c r="G14" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="214"/>
+      <c r="H14" s="201"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="141"/>
-      <c r="G15" s="215" t="str">
+      <c r="G15" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="216"/>
+      <c r="H15" s="212"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="141"/>
-      <c r="G16" s="215" t="str">
+      <c r="G16" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="216"/>
+      <c r="H16" s="212"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="141"/>
-      <c r="G17" s="215" t="str">
+      <c r="G17" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="216"/>
+      <c r="H17" s="212"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="141"/>
-      <c r="G18" s="215" t="str">
+      <c r="G18" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="216"/>
+      <c r="H18" s="212"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="204">
+      <c r="A19" s="217">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="141"/>
-      <c r="G19" s="215" t="str">
+      <c r="G19" s="211" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="216"/>
+      <c r="H19" s="212"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="204" t="s">
+      <c r="A20" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="215" t="str">
+      <c r="G20" s="211" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="216"/>
+      <c r="H20" s="212"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="204" t="s">
+      <c r="A21" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="205"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="215" t="str">
+      <c r="G21" s="211" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="216"/>
+      <c r="H21" s="212"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="204" t="s">
+      <c r="A22" s="217" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="219"/>
       <c r="E22" s="140"/>
       <c r="F22" s="140"/>
-      <c r="G22" s="215" t="str">
+      <c r="G22" s="211" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="216"/>
+      <c r="H22" s="212"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="204" t="s">
+      <c r="A23" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="219"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="215" t="str">
+      <c r="G23" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="216"/>
+      <c r="H23" s="212"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="204" t="s">
+      <c r="A24" s="217" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="225"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="215" t="str">
+      <c r="G24" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H24" s="216"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A25" s="142" t="s">
@@ -13218,7 +13244,7 @@
       <c r="H25" s="221"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="200" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="222"/>
@@ -13230,224 +13256,224 @@
       <c r="H26" s="224"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="215" t="s">
+      <c r="A27" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="216"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="212"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
-      <c r="G27" s="215" t="s">
+      <c r="G27" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="212"/>
     </row>
     <row r="28" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="216"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="212"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
-      <c r="G28" s="215" t="s">
+      <c r="G28" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="216"/>
+      <c r="H28" s="212"/>
     </row>
     <row r="29" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="216"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="212"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="215" t="s">
+      <c r="G29" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="216"/>
+      <c r="H29" s="212"/>
     </row>
     <row r="30" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="215" t="s">
+      <c r="A30" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="216"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
-      <c r="G30" s="215" t="s">
+      <c r="G30" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="216"/>
+      <c r="H30" s="212"/>
     </row>
     <row r="31" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="215" t="s">
+      <c r="A31" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="219"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="216"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="212"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="216"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="212"/>
     </row>
     <row r="32" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="216"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="212"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
-      <c r="G32" s="215" t="str">
+      <c r="G32" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="216"/>
+      <c r="H32" s="212"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="216"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="212"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
-      <c r="G33" s="215" t="str">
+      <c r="G33" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H33" s="216"/>
+      <c r="H33" s="212"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="226" t="s">
+      <c r="A34" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="227"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="228"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="216"/>
       <c r="E34" s="144"/>
       <c r="F34" s="144"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="216"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="212"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="229" t="s">
+      <c r="A35" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="229"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="229"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
       <c r="E35" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="144"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="216"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="212"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="229" t="s">
+      <c r="A36" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="229"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="216"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="212"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="230" t="s">
+      <c r="A37" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="230"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="208"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="216"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="212"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="229" t="s">
+      <c r="A38" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="229"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="146"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="214"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="231" t="s">
+      <c r="A39" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
       <c r="E39" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="144"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="212"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="236" t="s">
+      <c r="A40" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="234" t="str">
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="205" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33 &amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B33</f>
         <v>Project 1: 0 / Project 2: 0 / Project 3: 0</v>
       </c>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="235"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="206"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="211" t="s">
+      <c r="A41" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="234" t="str">
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="205" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"&amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory) / Project 3: 0 (satisfactory)</v>
       </c>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="235"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="206"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="233"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="203"/>
       <c r="E42" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="141"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="214"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="201"/>
       <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
@@ -13495,12 +13521,54 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -13517,54 +13585,12 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB66D03-AA56-4112-AD3E-34452D3C2C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB05F9-EDA7-4477-ACC4-8E2AA1F7E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
@@ -2441,199 +2441,6 @@
     <xf numFmtId="0" fontId="62" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2641,6 +2448,199 @@
     <xf numFmtId="167" fontId="30" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6036,11 +6036,11 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6203,18 +6203,18 @@
       <c r="E16" s="80"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:9" s="245" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="178" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="244">
+      <c r="B17" s="177">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D17" s="246"/>
-      <c r="E17" s="247">
+      <c r="D17" s="179"/>
+      <c r="E17" s="180">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H17" s="248">
+      <c r="H17" s="181">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       <c r="B63" s="88"/>
       <c r="D63" s="162"/>
     </row>
-    <row r="64" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
         <v>160</v>
       </c>
@@ -6700,7 +6700,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 E14 B14" xr:uid="{67EBB52A-3CFD-417F-8FEB-5F739450143A}">
       <formula1>"5%,0%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 E6 H6" xr:uid="{F9A6D356-4A76-4A3F-AC1C-EC7BB7F8C147}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 B6 H6" xr:uid="{F9A6D356-4A76-4A3F-AC1C-EC7BB7F8C147}">
       <formula1>"Stage Payment, Final Payment, Retention Payment"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6921,24 +6921,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="241" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="240"/>
+      <c r="B3" s="240"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6979,24 +6979,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="241" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="240"/>
+      <c r="B3" s="240"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7037,24 +7037,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="241" t="str">
         <f>'PC 3'!B24 &amp; " BY " &amp; 'PC 3'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="240"/>
+      <c r="B3" s="240"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7090,142 +7090,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="236"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="236"/>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="236"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="236"/>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="237" t="str">
+      <c r="A7" s="250" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="237">
+      <c r="A9" s="250">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="237"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="235">
+      <c r="A10" s="243">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="235">
+      <c r="A11" s="243">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="235">
+      <c r="A12" s="243">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="235">
+      <c r="A13" s="243">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="235"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="238" t="s">
+      <c r="A15" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="240" t="str">
+      <c r="A16" s="245" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
         <v>0 &amp; 0 &amp; 0</v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="241" t="str">
+      <c r="A18" s="246" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" &amp; "&amp;'PC 3'!B64&amp;" dated "&amp;'PC 1'!B65 &amp;" &amp; "&amp;'PC 2'!B65&amp;" &amp; "&amp;'PC 3'!B65 &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 &amp; 0 dated 0 &amp; 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="242"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
+      <c r="A19" s="247"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -7298,48 +7298,373 @@
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="243" t="s">
+      <c r="A25" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="235"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
+      <c r="A26" s="243"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="235" t="s">
+      <c r="A27" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="235"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
+      <c r="A28" s="243"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="242" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="239" t="s">
+      <c r="A30" s="242" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+    </row>
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A31" s="31"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="250" t="str">
+        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="244"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="250">
+        <f>'PC 1'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="243">
+        <f>'PC 1'!B60</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="243">
+        <f>'PC 1'!B61</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="243">
+        <f>'PC 1'!B62</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="243"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="243">
+        <f>'PC 1'!B63</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="243"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="245" t="str">
+        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
+        <v>0 &amp; 0 &amp; 0</v>
+      </c>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="246" t="str">
+        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="247"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <f>'PC 1'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f>'PC 1'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="str">
+        <f>'PC 1'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="52">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53">
+        <f>'PC 2'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <f>'PC 2'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>'PC 2'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A23" s="52">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <f>'PC 3'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <f>'PC 3'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>'PC 3'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="248" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="243"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="243" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="243"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="242" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="242" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="31"/>
@@ -7394,331 +7719,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="236"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="236"/>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="236"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="236"/>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="237" t="str">
-        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>0                                                                             0</v>
-      </c>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="237">
-        <f>'PC 1'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="237"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="235">
-        <f>'PC 1'!B60</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="235">
-        <f>'PC 1'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="235">
-        <f>'PC 1'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="235">
-        <f>'PC 1'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="235"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="238" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="240" t="str">
-        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
-        <v>0 &amp; 0 &amp; 0</v>
-      </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="241" t="str">
-        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="242"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'PC 1'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
-        <f>'PC 1'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="55" t="str">
-        <f>'PC 1'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
-        <v>2</v>
-      </c>
-      <c r="B22" s="53">
-        <f>'PC 2'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
-        <f>'PC 2'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f>'PC 2'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <f>'PC 3'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
-        <f>'PC 3'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>'PC 3'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="243" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="235"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="235" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="235"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="239" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="239" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-    </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A34" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
@@ -7726,7 +7726,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="121"/>
-      <c r="D8" s="249">
+      <c r="D8" s="182">
         <f>DETAILS!B17</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="250">
+      <c r="D8" s="183">
         <f>DETAILS!E17</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="250">
+      <c r="D8" s="183">
         <f>DETAILS!H17</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -10226,57 +10226,57 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="187">
+      <c r="A2" s="186">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="189"/>
@@ -10307,16 +10307,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="191">
+      <c r="C8" s="188">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -10325,16 +10325,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="192">
+      <c r="C9" s="185">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -10343,16 +10343,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="185">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -10361,16 +10361,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="190">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -10379,16 +10379,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="192">
+      <c r="C12" s="185">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -10397,16 +10397,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="192">
+      <c r="C13" s="185">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -10415,16 +10415,16 @@
       <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="185">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -10433,16 +10433,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="192">
+      <c r="C15" s="185">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -10451,16 +10451,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="192">
+      <c r="C16" s="185">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -10469,16 +10469,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="185">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10487,16 +10487,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="185">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10505,16 +10505,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="184">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -10523,16 +10523,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="184">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -10541,16 +10541,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="184">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -10559,16 +10559,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="184">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -10577,16 +10577,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="184">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -10595,16 +10595,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="190">
+      <c r="C24" s="199">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -10613,16 +10613,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="185">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -10631,16 +10631,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="184">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -10649,16 +10649,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="184">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -10667,16 +10667,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="184">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -10685,28 +10685,28 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="189"/>
@@ -10720,17 +10720,17 @@
       <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
@@ -10793,220 +10793,220 @@
       <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="194" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="194"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="194"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="197"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="197"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="196" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="195" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="195"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="193">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="195"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="193">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="180"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="185">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="181" t="s">
+      <c r="A47" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="181"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="181"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="181"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
+      <c r="A49" s="203"/>
+      <c r="B49" s="203"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="183"/>
-      <c r="C50" s="184" t="s">
+      <c r="B50" s="198"/>
+      <c r="C50" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="181"/>
-      <c r="E50" s="186" t="s">
+      <c r="D50" s="203"/>
+      <c r="E50" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="206"/>
+      <c r="H50" s="206"/>
+      <c r="I50" s="206"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="178"/>
-      <c r="C51" s="179" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="187" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="178" t="s">
+      <c r="A52" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="178"/>
-      <c r="C52" s="179" t="s">
+      <c r="B52" s="200"/>
+      <c r="C52" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="179"/>
-      <c r="E52" s="187" t="s">
+      <c r="D52" s="201"/>
+      <c r="E52" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="186"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11015,46 +11015,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/ZL9vw+w/MGVh2p/pN9qyKFCBd/lZ99u5FVQ7UHIdVPr4D9BMDskpB6vnGNgevMIW9jzz4S6XWT/jT1sAjtk9Q==" saltValue="OfD4XRZjXkwA548NNd0ydA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -11071,6 +11031,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11110,57 +11110,57 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="187">
+      <c r="A2" s="186">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C6" s="189"/>
@@ -11191,16 +11191,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="191">
+      <c r="C8" s="188">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -11209,16 +11209,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="192">
+      <c r="C9" s="185">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -11227,16 +11227,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="185">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -11245,16 +11245,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="190">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -11263,16 +11263,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="192">
+      <c r="C12" s="185">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -11281,16 +11281,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="192">
+      <c r="C13" s="185">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -11299,16 +11299,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="185">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -11317,16 +11317,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="192">
+      <c r="C15" s="185">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -11335,16 +11335,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="192">
+      <c r="C16" s="185">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -11353,16 +11353,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="185">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -11371,16 +11371,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="185">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -11389,16 +11389,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="184">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -11407,16 +11407,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="184">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -11425,16 +11425,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="184">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -11443,16 +11443,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="184">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -11461,16 +11461,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="184">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -11479,16 +11479,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="190">
+      <c r="C24" s="199">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11497,16 +11497,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="185">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11515,16 +11515,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="184">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -11533,16 +11533,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="184">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -11551,16 +11551,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="184">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -11569,28 +11569,28 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="189"/>
@@ -11604,17 +11604,17 @@
       <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
@@ -11677,208 +11677,208 @@
       <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="194" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="194"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="194"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="197"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="197"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="196" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="195" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="195"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="193">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="195"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="193">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="180"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="185">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="181"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="181"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="181"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="182" t="s">
+      <c r="A49" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="183"/>
-      <c r="C49" s="184" t="s">
+      <c r="B49" s="198"/>
+      <c r="C49" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="186" t="s">
+      <c r="D49" s="203"/>
+      <c r="E49" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="178" t="s">
+      <c r="A50" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="178"/>
-      <c r="C50" s="179" t="s">
+      <c r="B50" s="200"/>
+      <c r="C50" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="187" t="s">
+      <c r="D50" s="201"/>
+      <c r="E50" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="178"/>
-      <c r="C51" s="179" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="187" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11887,6 +11887,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="AenHlGm4TV7t0opFwq2YCN74BKID9vz4MeNYqsBvZDb4BNu3LlpMDiComVs+HCWwscZB44Q4Xqa1sqTwx0AGng==" saltValue="/xFXwSqYnMPgQBt7FYEU+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -11903,46 +11943,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11981,57 +11981,57 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="187">
+      <c r="A2" s="186">
         <f>'PC 3'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C6" s="189"/>
@@ -12062,16 +12062,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="191">
+      <c r="C8" s="188">
         <f>'PC 3'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -12080,16 +12080,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="192">
+      <c r="C9" s="185">
         <f>'PC 3'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -12098,16 +12098,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="185">
         <f>'PC 3'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -12116,16 +12116,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="190">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -12134,16 +12134,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="192">
+      <c r="C12" s="185">
         <f>'PC 3'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -12152,16 +12152,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="192">
+      <c r="C13" s="185">
         <f>'PC 3'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -12170,16 +12170,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="185">
         <f>'PC 3'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -12188,16 +12188,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="192">
+      <c r="C15" s="185">
         <f>'PC 3'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -12206,16 +12206,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="192">
+      <c r="C16" s="185">
         <f>'PC 3'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -12224,16 +12224,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="185">
         <f>'PC 3'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -12242,16 +12242,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="185">
         <f>'PC 3'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -12260,16 +12260,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="184">
         <f>'PC 3'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -12278,16 +12278,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="184">
         <f>'PC 3'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -12296,16 +12296,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="184">
         <f>'PC 3'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -12314,16 +12314,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="184">
         <f>'PC 3'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -12332,16 +12332,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="184">
         <f>'PC 3'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -12350,16 +12350,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="190">
+      <c r="C24" s="199">
         <f>'PC 3'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -12368,16 +12368,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="185">
         <f>'PC 3'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -12386,16 +12386,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="184">
         <f>'PC 3'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -12404,16 +12404,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="184">
         <f>'PC 3'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -12422,16 +12422,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="184">
         <f>'PC 3'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -12440,28 +12440,28 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="189"/>
@@ -12475,17 +12475,17 @@
       <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
@@ -12548,208 +12548,208 @@
       <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="194" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 3'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="194"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="194"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="197"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="197"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="196" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="195" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="195"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="193">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="195"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="193">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="180"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="185">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="181"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="181"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="181"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="182" t="s">
+      <c r="A49" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="183"/>
-      <c r="C49" s="184" t="s">
+      <c r="B49" s="198"/>
+      <c r="C49" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="181"/>
-      <c r="E49" s="186" t="s">
+      <c r="D49" s="203"/>
+      <c r="E49" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="178" t="s">
+      <c r="A50" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="178"/>
-      <c r="C50" s="179" t="s">
+      <c r="B50" s="200"/>
+      <c r="C50" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="187" t="s">
+      <c r="D50" s="201"/>
+      <c r="E50" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="178"/>
-      <c r="C51" s="179" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="187" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12758,42 +12758,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qLIk4orf7RZPI3dP68zKKxtDqL4frOEWZhNyL6Zib5r/Hozz1t24W4C6KelgCJUuulafSp9+iJ/PKb1NbXIqJQ==" saltValue="2mcxvoCaVqQ1H0WK6vZToA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:I49"/>
@@ -12808,12 +12778,42 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12847,63 +12847,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:8" s="134" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="227"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="228">
+      <c r="B5" s="221">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="G5" s="166" t="s">
         <v>118</v>
       </c>
@@ -12916,14 +12916,14 @@
       <c r="A6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="228">
+      <c r="B6" s="221">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
       <c r="G6" s="166"/>
       <c r="H6" s="135"/>
     </row>
@@ -12931,14 +12931,14 @@
       <c r="A7" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="228">
+      <c r="B7" s="221">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
       <c r="G7" s="166"/>
       <c r="H7" s="135"/>
     </row>
@@ -12946,14 +12946,14 @@
       <c r="A8" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="228">
+      <c r="B8" s="221">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
       <c r="G8" s="139" t="s">
         <v>176</v>
       </c>
@@ -12966,14 +12966,14 @@
       <c r="A9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="229" t="str">
+      <c r="B9" s="211" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
       <c r="G9" s="139" t="s">
         <v>214</v>
       </c>
@@ -12986,14 +12986,14 @@
       <c r="A10" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="230" t="str">
+      <c r="B10" s="212" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
         <v>0/0/0</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
       <c r="G10" s="139" t="s">
         <v>113</v>
       </c>
@@ -13005,14 +13005,14 @@
       <c r="A11" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="229">
+      <c r="B11" s="211">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="229"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
       <c r="G11" s="139" t="s">
         <v>219</v>
       </c>
@@ -13025,455 +13025,455 @@
       <c r="A12" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="226"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="226"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="232"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="215"/>
       <c r="E14" s="133" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="200" t="s">
+      <c r="G14" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="201"/>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="141"/>
-      <c r="G15" s="211" t="str">
+      <c r="G15" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="212"/>
+      <c r="H15" s="219"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="217" t="s">
+      <c r="A16" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="141"/>
-      <c r="G16" s="211" t="str">
+      <c r="G16" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="212"/>
+      <c r="H16" s="219"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="141"/>
-      <c r="G17" s="211" t="str">
+      <c r="G17" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="212"/>
+      <c r="H17" s="219"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="217" t="s">
+      <c r="A18" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="141"/>
-      <c r="G18" s="211" t="str">
+      <c r="G18" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="212"/>
+      <c r="H18" s="219"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="217">
+      <c r="A19" s="207">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="141"/>
-      <c r="G19" s="211" t="str">
+      <c r="G19" s="218" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="212"/>
+      <c r="H19" s="219"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="217" t="s">
+      <c r="A20" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="211" t="str">
+      <c r="G20" s="218" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="212"/>
+      <c r="H20" s="219"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="218"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="211" t="str">
+      <c r="G21" s="218" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="212"/>
+      <c r="H21" s="219"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="217" t="s">
+      <c r="A22" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="218"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="140"/>
       <c r="F22" s="140"/>
-      <c r="G22" s="211" t="str">
+      <c r="G22" s="218" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="212"/>
+      <c r="H22" s="219"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="217" t="s">
+      <c r="A23" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="219"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="211" t="str">
+      <c r="G23" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="212"/>
+      <c r="H23" s="219"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="225"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="219"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
-      <c r="G24" s="211" t="str">
+      <c r="G24" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H24" s="212"/>
+      <c r="H24" s="219"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A25" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="220">
+      <c r="B25" s="223">
         <f>'PC 1'!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="221"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="224"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="222"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="222"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
       <c r="E26" s="146"/>
       <c r="F26" s="146"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="224"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="227"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="211" t="s">
+      <c r="A27" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="212"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="219"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
-      <c r="G27" s="211" t="s">
+      <c r="G27" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="212"/>
+      <c r="H27" s="219"/>
     </row>
     <row r="28" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="219"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
-      <c r="G28" s="211" t="s">
+      <c r="G28" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="212"/>
+      <c r="H28" s="219"/>
     </row>
     <row r="29" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="212"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="219"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="211" t="s">
+      <c r="G29" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="212"/>
+      <c r="H29" s="219"/>
     </row>
     <row r="30" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="212"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
-      <c r="G30" s="211" t="s">
+      <c r="G30" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="212"/>
+      <c r="H30" s="219"/>
     </row>
     <row r="31" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="211" t="s">
+      <c r="A31" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="212"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="219"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="219"/>
     </row>
     <row r="32" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="219"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
-      <c r="G32" s="211" t="str">
+      <c r="G32" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="212"/>
+      <c r="H32" s="219"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="211" t="s">
+      <c r="A33" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="212"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="219"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
-      <c r="G33" s="211" t="str">
+      <c r="G33" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H33" s="212"/>
+      <c r="H33" s="219"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="216"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="231"/>
       <c r="E34" s="144"/>
       <c r="F34" s="144"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="212"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="219"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="232"/>
       <c r="E35" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="144"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="212"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="219"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="209" t="s">
+      <c r="A36" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="212"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="219"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="208" t="s">
+      <c r="A37" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="208"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="212"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="219"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="209"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="232"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="146"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="217"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="210" t="s">
+      <c r="A39" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="144"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="219"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="205" t="str">
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="237" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33 &amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B33</f>
         <v>Project 1: 0 / Project 2: 0 / Project 3: 0</v>
       </c>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="206"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="238"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="205" t="str">
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="237" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"&amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory) / Project 3: 0 (satisfactory)</v>
       </c>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="206"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="237"/>
+      <c r="G41" s="237"/>
+      <c r="H41" s="238"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="202" t="s">
+      <c r="A42" s="235" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="202"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="203"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236"/>
       <c r="E42" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="141"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="201"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="217"/>
       <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
@@ -13521,54 +13521,12 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -13585,12 +13543,54 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB05F9-EDA7-4477-ACC4-8E2AA1F7E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C06DF-7E32-403E-90ED-B1B6CECAAB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -2451,65 +2451,116 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2520,8 +2571,32 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2530,99 +2605,30 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2634,12 +2640,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6040,24 +6040,24 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="2.77734375" customWidth="1"/>
     <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="1.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="8" max="8" width="39.44140625" customWidth="1"/>
-    <col min="9" max="9" width="1.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="158" t="s">
         <v>192</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="E2" s="160"/>
       <c r="H2" s="161"/>
     </row>
-    <row r="3" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>193</v>
       </c>
@@ -6088,8 +6088,9 @@
       <c r="D3" s="157"/>
       <c r="E3" s="168"/>
       <c r="H3" s="168"/>
-    </row>
-    <row r="4" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
@@ -6097,8 +6098,9 @@
       <c r="D4" s="157"/>
       <c r="E4" s="69"/>
       <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
         <v>194</v>
       </c>
@@ -6106,8 +6108,9 @@
       <c r="D5" s="157"/>
       <c r="E5" s="169"/>
       <c r="H5" s="69"/>
-    </row>
-    <row r="6" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
         <v>195</v>
       </c>
@@ -6115,8 +6118,9 @@
       <c r="D6" s="157"/>
       <c r="E6" s="69"/>
       <c r="H6" s="69"/>
-    </row>
-    <row r="7" spans="1:8" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
@@ -6124,8 +6128,9 @@
       <c r="D7" s="157"/>
       <c r="E7" s="169"/>
       <c r="H7" s="71"/>
-    </row>
-    <row r="8" spans="1:8" s="67" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="67" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="72" t="s">
         <v>12</v>
       </c>
@@ -6133,14 +6138,16 @@
       <c r="D8" s="157"/>
       <c r="E8" s="73"/>
       <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" s="157" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="157" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="155"/>
       <c r="B9" s="156"/>
       <c r="E9" s="156"/>
       <c r="H9" s="156"/>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>196</v>
       </c>
@@ -6149,7 +6156,7 @@
       <c r="E10" s="75"/>
       <c r="H10" s="75"/>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>197</v>
       </c>
@@ -6158,7 +6165,7 @@
       <c r="E11" s="77"/>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>198</v>
       </c>
@@ -6167,7 +6174,7 @@
       <c r="E12" s="78"/>
       <c r="H12" s="78"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>199</v>
       </c>
@@ -6176,7 +6183,7 @@
       <c r="E13" s="77"/>
       <c r="H13" s="77"/>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>200</v>
       </c>
@@ -6185,7 +6192,7 @@
       <c r="E14" s="78"/>
       <c r="H14" s="78"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>201</v>
       </c>
@@ -6194,7 +6201,7 @@
       <c r="E15" s="77"/>
       <c r="H15" s="174"/>
     </row>
-    <row r="16" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
         <v>202</v>
       </c>
@@ -6217,6 +6224,7 @@
       <c r="H17" s="181">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="163" t="s">
@@ -6235,19 +6243,24 @@
         <f>'PC 3'!B12</f>
         <v>0</v>
       </c>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
         <v>203</v>
       </c>
       <c r="B19" s="82"/>
+      <c r="C19" t="str">
+        <f>"(" &amp;B19&amp;")"</f>
+        <v>()</v>
+      </c>
       <c r="D19" s="162"/>
       <c r="E19" s="82"/>
+      <c r="F19" t="str">
+        <f>"(" &amp;E19&amp;")"</f>
+        <v>()</v>
+      </c>
       <c r="H19" s="82"/>
-      <c r="I19" t="str">
-        <f>"(" &amp;H19&amp;")"</f>
-        <v>()</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D20" s="162"/>
@@ -6347,6 +6360,7 @@
       <c r="D32" s="173"/>
       <c r="E32" s="171"/>
       <c r="H32" s="171"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
@@ -7090,142 +7104,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="249"/>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="249"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="249"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="249"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="250" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="244"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="250">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="243">
+      <c r="A10" s="242">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="243">
+      <c r="A11" s="242">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="243">
+      <c r="A12" s="242">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="243">
+      <c r="A13" s="242">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="243"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="244" t="s">
+      <c r="A15" s="245" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="245" t="str">
+      <c r="A16" s="247" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
         <v>0 &amp; 0 &amp; 0</v>
       </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="246" t="str">
+      <c r="A18" s="248" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" &amp; "&amp;'PC 3'!B64&amp;" dated "&amp;'PC 1'!B65 &amp;" &amp; "&amp;'PC 2'!B65&amp;" &amp; "&amp;'PC 3'!B65 &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 &amp; 0 dated 0 &amp; 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="247"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
+      <c r="A19" s="249"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -7298,48 +7312,373 @@
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="250" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="243"/>
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
+      <c r="A26" s="242"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="242" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="243"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="242" t="s">
+      <c r="A29" s="246" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="246" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+    </row>
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A31" s="31"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="244" t="str">
+        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="245"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="244">
+        <f>'PC 1'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="242">
+        <f>'PC 1'!B60</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="242">
+        <f>'PC 1'!B61</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="242">
+        <f>'PC 1'!B62</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="242"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="242">
+        <f>'PC 1'!B63</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="242"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="245" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="247" t="str">
+        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
+        <v>0 &amp; 0 &amp; 0</v>
+      </c>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="248" t="str">
+        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="249"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <f>'PC 1'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f>'PC 1'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="str">
+        <f>'PC 1'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="52">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53">
+        <f>'PC 2'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <f>'PC 2'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>'PC 2'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A23" s="52">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <f>'PC 3'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <f>'PC 3'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>'PC 3'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="250" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="242"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="242" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="242"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="246" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="31"/>
@@ -7394,331 +7733,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="249"/>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="249"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="249"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="249"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="250" t="str">
-        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>0                                                                             0</v>
-      </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="244"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="250">
-        <f>'PC 1'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="243">
-        <f>'PC 1'!B60</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="243">
-        <f>'PC 1'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="243">
-        <f>'PC 1'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="243">
-        <f>'PC 1'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="243"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="244" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="245" t="str">
-        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
-        <v>0 &amp; 0 &amp; 0</v>
-      </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="246" t="str">
-        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="247"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'PC 1'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
-        <f>'PC 1'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="55" t="str">
-        <f>'PC 1'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
-        <v>2</v>
-      </c>
-      <c r="B22" s="53">
-        <f>'PC 2'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
-        <f>'PC 2'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f>'PC 2'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <f>'PC 3'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
-        <f>'PC 3'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>'PC 3'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="248" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="243"/>
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="243" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="243"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="242" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="242" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-    </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A34" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
@@ -7726,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -7899,9 +7913,9 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
-      <c r="B13" s="41">
+      <c r="B13" s="41" t="str">
         <f>DETAILS!C19</f>
-        <v>0</v>
+        <v>()</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="95" t="str">
@@ -7928,7 +7942,7 @@
     <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
@@ -7938,7 +7952,7 @@
     <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
@@ -7948,7 +7962,7 @@
     <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦0.00 0 only</v>
+        <v>sum of ₦0.00 () only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
@@ -8536,7 +8550,7 @@
     </row>
     <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mQ9RoLk2b6aM5F/8R6AwAnlNE0/i7UL2NxvYCFnCaUUYki/h1HjBFvTIk1U75452NYCZ2derQJCybDzLHAoiJg==" saltValue="7+7P24tKQsuPvEXsWqusOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zX1zR+Kb7Qm+UHF0apN37ecG9+icaF8YeVIOdDf9t6k3FScokQiYiBq60x+oWXlyX8tsEEifHVltQbjVVtAGQA==" saltValue="czS1yEfHG8jHPUBE2/2MEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8550,8 +8564,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -8722,9 +8736,9 @@
     </row>
     <row r="13" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A13" s="96"/>
-      <c r="B13" s="110">
+      <c r="B13" s="110" t="str">
         <f>DETAILS!F19</f>
-        <v>0</v>
+        <v>()</v>
       </c>
       <c r="C13" s="111"/>
       <c r="D13" s="112" t="str">
@@ -8751,7 +8765,7 @@
     <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
@@ -8761,7 +8775,7 @@
     <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
@@ -8771,7 +8785,7 @@
     <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦0.00 0 only</v>
+        <v>sum of ₦0.00 () only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
@@ -9363,7 +9377,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VPyUMCglqBFh9/zTnOuL/KcwbMvLEp9RX8ZUpeM7ETBfnoMDsHWxcODQNR2TAYrAWZaErUorqtZRvvouKNWFDA==" saltValue="UCtxLH2AmJEmKFSS54ez6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k1xpf9iPtO72sWPgDA2X8OCMuIIDfeSr1FOU/iqqfGUiyeCMR23UlN5Y+8lOE6pSMZz3GmEcO9Ob48fSJwrhJQ==" saltValue="UOjvjTzp+UCCG1zbT66stA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9376,8 +9390,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -9548,9 +9562,9 @@
     </row>
     <row r="13" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A13" s="96"/>
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="110">
         <f>DETAILS!I19</f>
-        <v>()</v>
+        <v>0</v>
       </c>
       <c r="C13" s="111"/>
       <c r="D13" s="112" t="str">
@@ -9577,7 +9591,7 @@
     <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
@@ -9587,7 +9601,7 @@
     <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+        <v>sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
@@ -9597,7 +9611,7 @@
     <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦0.00 () only</v>
+        <v>sum of ₦0.00 0 only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
@@ -10189,7 +10203,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RGyZ7ky0Kn0e8X6fHYoEgJ42xS7/0iGSnbYSH8CBWuSRg7A5ssLH0WMS4Fk5qtm+4pd00GRusHbQMs6ZTjG+kQ==" saltValue="MHpAuKYTS9S1uXZXhbnxnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="teYog8nCZYi32IItBi/aYwSEL9nfEJN20wUMcJ4ggOZ1NwROEOJdGu4Jwrs7rhco0Ql/7LwqhEhkrgyJP3/ooQ==" saltValue="oXXaFZ9gG05g/GehZKUstg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10203,7 +10217,7 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -10226,79 +10240,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10307,16 +10321,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -10325,16 +10339,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -10343,16 +10357,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -10361,16 +10375,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -10379,16 +10393,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -10397,16 +10411,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -10415,16 +10429,16 @@
       <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="199">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -10433,16 +10447,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -10451,16 +10465,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -10469,16 +10483,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10487,16 +10501,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10595,16 +10609,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -10613,16 +10627,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -10685,39 +10699,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -10736,61 +10750,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -10806,207 +10820,207 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 1'!A16</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
-      </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203" t="s">
+      <c r="A47" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="203"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="197" t="s">
+      <c r="A50" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="198"/>
-      <c r="C50" s="204" t="s">
+      <c r="B50" s="190"/>
+      <c r="C50" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="206" t="s">
+      <c r="D50" s="188"/>
+      <c r="E50" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="206"/>
-      <c r="G50" s="206"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="206"/>
+      <c r="F50" s="193"/>
+      <c r="G50" s="193"/>
+      <c r="H50" s="193"/>
+      <c r="I50" s="193"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="200"/>
-      <c r="C52" s="201" t="s">
+      <c r="B52" s="185"/>
+      <c r="C52" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="201"/>
-      <c r="E52" s="186" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11015,6 +11029,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/ZL9vw+w/MGVh2p/pN9qyKFCBd/lZ99u5FVQ7UHIdVPr4D9BMDskpB6vnGNgevMIW9jzz4S6XWT/jT1sAjtk9Q==" saltValue="OfD4XRZjXkwA548NNd0ydA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -11031,46 +11085,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11087,7 +11101,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A15" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -11110,79 +11124,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11191,16 +11205,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -11209,16 +11223,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -11227,16 +11241,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -11245,16 +11259,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -11263,16 +11277,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -11281,16 +11295,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -11299,16 +11313,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="199">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -11317,16 +11331,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -11335,16 +11349,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -11353,16 +11367,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -11371,16 +11385,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -11479,16 +11493,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11497,16 +11511,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11569,39 +11583,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -11620,61 +11634,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -11690,195 +11704,195 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 2'!A16</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
-      </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="204" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="203"/>
-      <c r="E49" s="206" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="200" t="s">
+      <c r="A50" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="200"/>
-      <c r="C50" s="201" t="s">
+      <c r="B50" s="185"/>
+      <c r="C50" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="201"/>
-      <c r="E50" s="186" t="s">
+      <c r="D50" s="186"/>
+      <c r="E50" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11887,46 +11901,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="AenHlGm4TV7t0opFwq2YCN74BKID9vz4MeNYqsBvZDb4BNu3LlpMDiComVs+HCWwscZB44Q4Xqa1sqTwx0AGng==" saltValue="/xFXwSqYnMPgQBt7FYEU+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -11943,6 +11917,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11958,7 +11972,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -11981,79 +11995,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 3'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 3'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12062,16 +12076,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 3'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -12080,16 +12094,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 3'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -12098,16 +12112,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 3'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -12116,16 +12130,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -12134,16 +12148,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 3'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -12152,16 +12166,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 3'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -12170,16 +12184,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="199">
         <f>'PC 3'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -12188,16 +12202,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 3'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -12206,16 +12220,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 3'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -12224,16 +12238,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 3'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -12242,16 +12256,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 3'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -12350,16 +12364,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 3'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -12368,16 +12382,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 3'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -12440,39 +12454,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -12491,61 +12505,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -12561,195 +12575,195 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 3'!A16</f>
-        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
-      </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="204" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="203"/>
-      <c r="E49" s="206" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="200" t="s">
+      <c r="A50" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="200"/>
-      <c r="C50" s="201" t="s">
+      <c r="B50" s="185"/>
+      <c r="C50" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="201"/>
-      <c r="E50" s="186" t="s">
+      <c r="D50" s="186"/>
+      <c r="E50" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12758,12 +12772,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qLIk4orf7RZPI3dP68zKKxtDqL4frOEWZhNyL6Zib5r/Hozz1t24W4C6KelgCJUuulafSp9+iJ/PKb1NbXIqJQ==" saltValue="2mcxvoCaVqQ1H0WK6vZToA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:I49"/>
@@ -12778,42 +12822,12 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12847,63 +12861,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
     </row>
     <row r="2" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
     </row>
     <row r="3" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:8" s="134" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="220"/>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="221">
+      <c r="B5" s="235">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
       <c r="G5" s="166" t="s">
         <v>118</v>
       </c>
@@ -12916,14 +12930,14 @@
       <c r="A6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="221">
+      <c r="B6" s="235">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
       <c r="G6" s="166"/>
       <c r="H6" s="135"/>
     </row>
@@ -12931,14 +12945,14 @@
       <c r="A7" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="221">
+      <c r="B7" s="235">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
       <c r="G7" s="166"/>
       <c r="H7" s="135"/>
     </row>
@@ -12946,14 +12960,14 @@
       <c r="A8" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="221">
+      <c r="B8" s="235">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="139" t="s">
         <v>176</v>
       </c>
@@ -12966,14 +12980,14 @@
       <c r="A9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="211" t="str">
+      <c r="B9" s="236" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="G9" s="139" t="s">
         <v>214</v>
       </c>
@@ -12986,14 +13000,14 @@
       <c r="A10" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="212" t="str">
+      <c r="B10" s="237" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
         <v>0/0/0</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
       <c r="G10" s="139" t="s">
         <v>113</v>
       </c>
@@ -13005,14 +13019,14 @@
       <c r="A11" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="236">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
       <c r="G11" s="139" t="s">
         <v>219</v>
       </c>
@@ -13025,49 +13039,49 @@
       <c r="A12" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="210"/>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
+      <c r="A13" s="233"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="215"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="133" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="216" t="s">
+      <c r="G14" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="217"/>
+      <c r="H14" s="208"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
@@ -13079,12 +13093,12 @@
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="226"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
@@ -13096,12 +13110,12 @@
       <c r="H16" s="219"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="226"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
@@ -13113,12 +13127,12 @@
       <c r="H17" s="219"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
@@ -13130,13 +13144,13 @@
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="207">
+      <c r="A19" s="224">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="140" t="s">
         <v>122</v>
       </c>
@@ -13148,12 +13162,12 @@
       <c r="H19" s="219"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="226"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
@@ -13165,12 +13179,12 @@
       <c r="H20" s="219"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
         <v>122</v>
@@ -13182,12 +13196,12 @@
       <c r="H21" s="219"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="224" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="140"/>
       <c r="F22" s="140"/>
       <c r="G22" s="218" t="str">
@@ -13197,12 +13211,12 @@
       <c r="H22" s="219"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="226"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
         <v>122</v>
@@ -13214,12 +13228,12 @@
       <c r="H23" s="219"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="207" t="s">
+      <c r="A24" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="228"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
       <c r="G24" s="218" t="str">
@@ -13232,35 +13246,35 @@
       <c r="A25" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="223">
+      <c r="B25" s="227">
         <f>'PC 1'!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="224"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="228"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
       <c r="E26" s="146"/>
       <c r="F26" s="146"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="227"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="231"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
       <c r="D27" s="219"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -13273,8 +13287,8 @@
       <c r="A28" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="222"/>
-      <c r="C28" s="222"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
       <c r="D28" s="219"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -13287,8 +13301,8 @@
       <c r="A29" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="222"/>
-      <c r="C29" s="222"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="220"/>
       <c r="D29" s="219"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -13301,8 +13315,8 @@
       <c r="A30" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
       <c r="D30" s="219"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -13315,8 +13329,8 @@
       <c r="A31" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="222"/>
-      <c r="C31" s="222"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
       <c r="D31" s="219"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -13327,8 +13341,8 @@
       <c r="A32" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="222"/>
-      <c r="C32" s="222"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
       <c r="D32" s="219"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -13342,8 +13356,8 @@
       <c r="A33" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="222"/>
-      <c r="C33" s="222"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
       <c r="D33" s="219"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
@@ -13354,24 +13368,24 @@
       <c r="H33" s="219"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="229" t="s">
+      <c r="A34" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="230"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="231"/>
+      <c r="B34" s="222"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="223"/>
       <c r="E34" s="144"/>
       <c r="F34" s="144"/>
       <c r="G34" s="218"/>
       <c r="H34" s="219"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="232" t="s">
+      <c r="A35" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="232"/>
-      <c r="C35" s="232"/>
-      <c r="D35" s="232"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="145" t="s">
         <v>122</v>
       </c>
@@ -13380,50 +13394,50 @@
       <c r="H35" s="219"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="232"/>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="218"/>
       <c r="H36" s="219"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="233" t="s">
+      <c r="A37" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="233"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
       <c r="G37" s="218"/>
       <c r="H37" s="219"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="232"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="232"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="146"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="217"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="208"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="234" t="s">
+      <c r="A39" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="232"/>
-      <c r="C39" s="232"/>
-      <c r="D39" s="232"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
       <c r="E39" s="145" t="s">
         <v>122</v>
       </c>
@@ -13432,48 +13446,48 @@
       <c r="H39" s="219"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="239" t="s">
+      <c r="A40" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="237" t="str">
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="212" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33 &amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B33</f>
         <v>Project 1: 0 / Project 2: 0 / Project 3: 0</v>
       </c>
-      <c r="E40" s="237"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="238"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="213"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="214" t="s">
+      <c r="A41" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="237" t="str">
+      <c r="B41" s="211"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"&amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory) / Project 3: 0 (satisfactory)</v>
       </c>
-      <c r="E41" s="237"/>
-      <c r="F41" s="237"/>
-      <c r="G41" s="237"/>
-      <c r="H41" s="238"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="213"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="235" t="s">
+      <c r="A42" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="236"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="210"/>
       <c r="E42" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="141"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="217"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="208"/>
       <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
@@ -13521,12 +13535,54 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -13543,54 +13599,12 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13711,19 +13725,19 @@
     <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="str">
         <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="str">
         <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 2: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="str">
         <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 3: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">

--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C06DF-7E32-403E-90ED-B1B6CECAAB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91799A4-5B8B-44DC-BF7B-890E4337C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -6037,10 +6037,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6619,9 +6619,9 @@
       <c r="A64" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="154">
-        <f>B3</f>
-        <v>0</v>
+      <c r="B64" s="154" t="str">
+        <f>B3&amp;","</f>
+        <v>,</v>
       </c>
       <c r="D64" s="162"/>
     </row>
@@ -6719,9 +6719,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B64" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7164,9 +7161,9 @@
       <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="242">
+      <c r="A10" s="242" t="str">
         <f>'PC 1'!B60</f>
-        <v>0</v>
+        <v>,</v>
       </c>
       <c r="B10" s="242"/>
       <c r="C10" s="242"/>
@@ -7489,9 +7486,9 @@
       <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="242">
+      <c r="A10" s="242" t="str">
         <f>'PC 1'!B60</f>
-        <v>0</v>
+        <v>,</v>
       </c>
       <c r="B10" s="242"/>
       <c r="C10" s="242"/>
@@ -8457,9 +8454,9 @@
       <c r="A60" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="44" t="str">
         <f>DETAILS!B64</f>
-        <v>0</v>
+        <v>,</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -13618,8 +13615,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91799A4-5B8B-44DC-BF7B-890E4337C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -2451,6 +2451,45 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2464,12 +2503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2478,90 +2511,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2571,32 +2520,8 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2605,41 +2530,116 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3522,67 +3522,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842912D2-8274-582B-FEE6-B356DB5CDEBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53340" y="0"/>
-          <a:ext cx="754380" cy="716280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -3688,266 +3627,11 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="~AUT0000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290BA305-51CA-B596-09D4-53FDD649DB87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:lum bright="12000" contrast="60000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8884920" y="83821"/>
-          <a:ext cx="634664" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE7126B-62A3-445B-DEE2-ECD4C15379E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="38100"/>
-          <a:ext cx="927100" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE5B438-4277-F23C-CD31-76C2932FFD09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9372600" y="0"/>
-          <a:ext cx="850900" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AD5391-96ED-4A6F-81A9-8230FF40E8C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53340" y="0"/>
-          <a:ext cx="815340" cy="716280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4056,266 +3740,11 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="~AUT0000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AC2742-4542-45D8-AA3C-3DE9A3101735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:lum bright="12000" contrast="60000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9624060" y="83821"/>
-          <a:ext cx="634664" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F188AA28-F62F-4FCE-98E1-19F3AC9F30DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="38100"/>
-          <a:ext cx="932180" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B727ED92-FBAC-47EC-8B13-3DD003CBC1C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9375140" y="0"/>
-          <a:ext cx="845820" cy="741680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1FCEA5-BE5E-46DE-8C8D-60D889EC0C84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53340" y="0"/>
-          <a:ext cx="815340" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4422,200 +3851,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="~AUT0000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FF73FC-DD98-4BEC-ADDF-1E9950E10B54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:lum bright="12000" contrast="60000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9624060" y="83821"/>
-          <a:ext cx="634664" cy="99059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82645BEB-A840-4436-B66F-89BF8403EDDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="38100"/>
-          <a:ext cx="932180" cy="157480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179CE35B-F350-4372-BF1F-5A7FBC52C0AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9375140" y="0"/>
-          <a:ext cx="845820" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7101,142 +6336,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="243"/>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="244" t="str">
+      <c r="A7" s="250" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="245"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="244">
+      <c r="A9" s="250">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="242" t="str">
+      <c r="A10" s="243" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="242"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="242">
+      <c r="A11" s="243">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="242">
+      <c r="A12" s="243">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="242"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="242">
+      <c r="A13" s="243">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="242"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="245" t="s">
+      <c r="A15" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="247" t="str">
+      <c r="A16" s="245" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
         <v>0 &amp; 0 &amp; 0</v>
       </c>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="248" t="str">
+      <c r="A18" s="246" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" &amp; "&amp;'PC 3'!B64&amp;" dated "&amp;'PC 1'!B65 &amp;" &amp; "&amp;'PC 2'!B65&amp;" &amp; "&amp;'PC 3'!B65 &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 &amp; 0 dated 0 &amp; 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="248"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="249"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
+      <c r="A19" s="247"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -7309,48 +6544,373 @@
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="250" t="s">
+      <c r="A25" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="242"/>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
+      <c r="A26" s="243"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="242"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
+      <c r="A28" s="243"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="246" t="s">
+      <c r="A29" s="242" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="246"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="246" t="s">
+      <c r="A30" s="242" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+    </row>
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A31" s="31"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="249"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="249"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="249"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="250" t="str">
+        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="244"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="250">
+        <f>'PC 1'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="243" t="str">
+        <f>'PC 1'!B60</f>
+        <v>,</v>
+      </c>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="243">
+        <f>'PC 1'!B61</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="243">
+        <f>'PC 1'!B62</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="243"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="243">
+        <f>'PC 1'!B63</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="243"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="245" t="str">
+        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
+        <v>0 &amp; 0 &amp; 0</v>
+      </c>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="246" t="str">
+        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="247"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <f>'PC 1'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f>'PC 1'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="str">
+        <f>'PC 1'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="52">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53">
+        <f>'PC 2'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <f>'PC 2'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>'PC 2'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A23" s="52">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <f>'PC 3'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <f>'PC 3'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>'PC 3'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="248" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="243"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="243" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="243"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="242" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="242" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="31"/>
@@ -7405,331 +6965,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="243"/>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="244" t="str">
-        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>0                                                                             0</v>
-      </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="245"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="244">
-        <f>'PC 1'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="242" t="str">
-        <f>'PC 1'!B60</f>
-        <v>,</v>
-      </c>
-      <c r="B10" s="242"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="242">
-        <f>'PC 1'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="242">
-        <f>'PC 1'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="242"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="242">
-        <f>'PC 1'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="242"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="245" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="247" t="str">
-        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
-        <v>0 &amp; 0 &amp; 0</v>
-      </c>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="248" t="str">
-        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="248"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="249"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'PC 1'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
-        <f>'PC 1'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="55" t="str">
-        <f>'PC 1'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
-        <v>2</v>
-      </c>
-      <c r="B22" s="53">
-        <f>'PC 2'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
-        <f>'PC 2'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f>'PC 2'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <f>'PC 3'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
-        <f>'PC 3'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>'PC 3'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="250" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="242"/>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="242" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="242"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="246" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="246"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="246" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-    </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A34" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
@@ -10214,7 +9449,7 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -10237,79 +9472,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="194">
+      <c r="A2" s="186">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10318,16 +9553,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="188">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -10336,16 +9571,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="185">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -10354,16 +9589,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="185">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -10372,16 +9607,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="206">
+      <c r="C11" s="190">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -10390,16 +9625,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="185">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -10408,16 +9643,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="185">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -10426,16 +9661,16 @@
       <c r="B14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="185">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -10444,16 +9679,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="199">
+      <c r="C15" s="185">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -10462,16 +9697,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="185">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -10480,16 +9715,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="199">
+      <c r="C17" s="185">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10498,16 +9733,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="199">
+      <c r="C18" s="185">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10606,16 +9841,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="197">
+      <c r="C24" s="199">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -10624,16 +9859,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="199">
+      <c r="C25" s="185">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -10696,39 +9931,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="196"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -10747,61 +9982,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -10817,255 +10052,215 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="201" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="201"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="204"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="203" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="200">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="200">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="200"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="187"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="192">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="188" t="s">
+      <c r="A47" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="188"/>
-      <c r="B48" s="188"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="188"/>
-      <c r="B49" s="188"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
+      <c r="A49" s="203"/>
+      <c r="B49" s="203"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="189" t="s">
+      <c r="A50" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="190"/>
-      <c r="C50" s="191" t="s">
+      <c r="B50" s="198"/>
+      <c r="C50" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="188"/>
-      <c r="E50" s="193" t="s">
+      <c r="D50" s="203"/>
+      <c r="E50" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="193"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="193"/>
-      <c r="I50" s="193"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="206"/>
+      <c r="H50" s="206"/>
+      <c r="I50" s="206"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="185"/>
-      <c r="C51" s="186" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="194" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="185" t="s">
+      <c r="A52" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="185"/>
-      <c r="C52" s="186" t="s">
+      <c r="B52" s="200"/>
+      <c r="C52" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="194" t="s">
+      <c r="D52" s="201"/>
+      <c r="E52" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="186"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/ZL9vw+w/MGVh2p/pN9qyKFCBd/lZ99u5FVQ7UHIdVPr4D9BMDskpB6vnGNgevMIW9jzz4S6XWT/jT1sAjtk9Q==" saltValue="OfD4XRZjXkwA548NNd0ydA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IOoMU3FCnDWRKCicOL+mVhKm6FmEl5ed2f4pYj0z8gTfGaD6HMCstSmY5HD14iMrFEd7Qf4EaKMXP60KSctE9Q==" saltValue="tuxC1ENlJbVAc3parbGQMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -11082,6 +10277,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11098,7 +10333,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A15" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -11121,79 +10356,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="194">
+      <c r="A2" s="186">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11202,16 +10437,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="188">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -11220,16 +10455,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="185">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -11238,16 +10473,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="185">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -11256,16 +10491,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="206">
+      <c r="C11" s="190">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -11274,16 +10509,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="185">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -11292,16 +10527,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="185">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -11310,16 +10545,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="185">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -11328,16 +10563,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="199">
+      <c r="C15" s="185">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -11346,16 +10581,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="185">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -11364,16 +10599,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="199">
+      <c r="C17" s="185">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -11382,16 +10617,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="199">
+      <c r="C18" s="185">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -11490,16 +10725,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="197">
+      <c r="C24" s="199">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11508,16 +10743,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="199">
+      <c r="C25" s="185">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11580,39 +10815,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="196"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -11631,61 +10866,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -11701,203 +10936,243 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="201" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="201"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="204"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="203" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="200">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="200">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="200"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="187"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="192">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="188"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="188"/>
-      <c r="B48" s="188"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="189" t="s">
+      <c r="A49" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="190"/>
-      <c r="C49" s="191" t="s">
+      <c r="B49" s="198"/>
+      <c r="C49" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="193" t="s">
+      <c r="D49" s="203"/>
+      <c r="E49" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="185"/>
-      <c r="C50" s="186" t="s">
+      <c r="B50" s="200"/>
+      <c r="C50" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="186"/>
-      <c r="E50" s="194" t="s">
+      <c r="D50" s="201"/>
+      <c r="E50" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="185"/>
-      <c r="C51" s="186" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="194" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AenHlGm4TV7t0opFwq2YCN74BKID9vz4MeNYqsBvZDb4BNu3LlpMDiComVs+HCWwscZB44Q4Xqa1sqTwx0AGng==" saltValue="/xFXwSqYnMPgQBt7FYEU+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z8Ip5U2P5Qe8Dj8foCKMI6qtPUIqRA4nz1t/A56y1klTu0P6zb9F3VGBE81bIV76G6yxIuq6Qvi2IhY8ugi6pA==" saltValue="Easln7jev24SmPXlTZdoFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -11914,46 +11189,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11969,7 +11204,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -11992,79 +11227,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="194">
+      <c r="A2" s="186">
         <f>'PC 3'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 3'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12073,16 +11308,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="188">
         <f>'PC 3'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -12091,16 +11326,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="185">
         <f>'PC 3'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -12109,16 +11344,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="185">
         <f>'PC 3'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -12127,16 +11362,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="206">
+      <c r="C11" s="190">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -12145,16 +11380,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="185">
         <f>'PC 3'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -12163,16 +11398,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="185">
         <f>'PC 3'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -12181,16 +11416,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="185">
         <f>'PC 3'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -12199,16 +11434,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="199">
+      <c r="C15" s="185">
         <f>'PC 3'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -12217,16 +11452,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="185">
         <f>'PC 3'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -12235,16 +11470,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="199">
+      <c r="C17" s="185">
         <f>'PC 3'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -12253,16 +11488,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="199">
+      <c r="C18" s="185">
         <f>'PC 3'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -12361,16 +11596,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="197">
+      <c r="C24" s="199">
         <f>'PC 3'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -12379,16 +11614,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="199">
+      <c r="C25" s="185">
         <f>'PC 3'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -12451,39 +11686,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="196"/>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -12502,61 +11737,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -12572,239 +11807,209 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="201" t="str">
+      <c r="A38" s="192" t="str">
         <f>'PC 3'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="201"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="204"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="203" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="200">
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="191">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="200">
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="191">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="200"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="187"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="192">
+      <c r="A46" s="202"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="205">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="188"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="188"/>
-      <c r="B48" s="188"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="189" t="s">
+      <c r="A49" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="190"/>
-      <c r="C49" s="191" t="s">
+      <c r="B49" s="198"/>
+      <c r="C49" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="193" t="s">
+      <c r="D49" s="203"/>
+      <c r="E49" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="185"/>
-      <c r="C50" s="186" t="s">
+      <c r="B50" s="200"/>
+      <c r="C50" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="186"/>
-      <c r="E50" s="194" t="s">
+      <c r="D50" s="201"/>
+      <c r="E50" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="185"/>
-      <c r="C51" s="186" t="s">
+      <c r="B51" s="200"/>
+      <c r="C51" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="194" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qLIk4orf7RZPI3dP68zKKxtDqL4frOEWZhNyL6Zib5r/Hozz1t24W4C6KelgCJUuulafSp9+iJ/PKb1NbXIqJQ==" saltValue="2mcxvoCaVqQ1H0WK6vZToA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="la5N3zMg15q2+T54YhWBTw1joYEpOZV1eUv5nsM1Ib3D9QVLu45SwfS+bdGAia+IyRaqwTfhaU41y7SOUKsSVA==" saltValue="HG73qQhhl2e/sN0Tn56x8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:I49"/>
@@ -12819,12 +12024,42 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12858,63 +12093,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:8" s="134" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="235">
+      <c r="B5" s="221">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="G5" s="166" t="s">
         <v>118</v>
       </c>
@@ -12927,14 +12162,14 @@
       <c r="A6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="235">
+      <c r="B6" s="221">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
       <c r="G6" s="166"/>
       <c r="H6" s="135"/>
     </row>
@@ -12942,14 +12177,14 @@
       <c r="A7" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="235">
+      <c r="B7" s="221">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
       <c r="G7" s="166"/>
       <c r="H7" s="135"/>
     </row>
@@ -12957,14 +12192,14 @@
       <c r="A8" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="235">
+      <c r="B8" s="221">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
       <c r="G8" s="139" t="s">
         <v>176</v>
       </c>
@@ -12977,14 +12212,14 @@
       <c r="A9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="236" t="str">
+      <c r="B9" s="211" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
       <c r="G9" s="139" t="s">
         <v>214</v>
       </c>
@@ -12997,14 +12232,14 @@
       <c r="A10" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="237" t="str">
+      <c r="B10" s="212" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
         <v>0/0/0</v>
       </c>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
       <c r="G10" s="139" t="s">
         <v>113</v>
       </c>
@@ -13016,14 +12251,14 @@
       <c r="A11" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="236">
+      <c r="B11" s="211">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
       <c r="G11" s="139" t="s">
         <v>219</v>
       </c>
@@ -13036,49 +12271,49 @@
       <c r="A12" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="236" t="s">
+      <c r="B12" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="233"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="211"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="239"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="215"/>
       <c r="E14" s="133" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="207" t="s">
+      <c r="G14" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="208"/>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="226"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
@@ -13090,12 +12325,12 @@
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="225"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="226"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
@@ -13107,12 +12342,12 @@
       <c r="H16" s="219"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="224" t="s">
+      <c r="A17" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="225"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="226"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
@@ -13124,12 +12359,12 @@
       <c r="H17" s="219"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="225"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
@@ -13141,13 +12376,13 @@
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="224">
+      <c r="A19" s="207">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="140" t="s">
         <v>122</v>
       </c>
@@ -13159,12 +12394,12 @@
       <c r="H19" s="219"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="225"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
@@ -13176,12 +12411,12 @@
       <c r="H20" s="219"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
         <v>122</v>
@@ -13193,12 +12428,12 @@
       <c r="H21" s="219"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="140"/>
       <c r="F22" s="140"/>
       <c r="G22" s="218" t="str">
@@ -13208,12 +12443,12 @@
       <c r="H22" s="219"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="224" t="s">
+      <c r="A23" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
         <v>122</v>
@@ -13225,12 +12460,12 @@
       <c r="H23" s="219"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="224" t="s">
+      <c r="A24" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="232"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
       <c r="G24" s="218" t="str">
@@ -13243,35 +12478,35 @@
       <c r="A25" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="227">
+      <c r="B25" s="223">
         <f>'PC 1'!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="228"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="224"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="229"/>
-      <c r="C26" s="229"/>
-      <c r="D26" s="229"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
       <c r="E26" s="146"/>
       <c r="F26" s="146"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="227"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
       <c r="D27" s="219"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -13284,8 +12519,8 @@
       <c r="A28" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
       <c r="D28" s="219"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -13298,8 +12533,8 @@
       <c r="A29" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="220"/>
-      <c r="C29" s="220"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="219"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -13312,8 +12547,8 @@
       <c r="A30" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="220"/>
-      <c r="C30" s="220"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
       <c r="D30" s="219"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -13326,8 +12561,8 @@
       <c r="A31" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="219"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -13338,8 +12573,8 @@
       <c r="A32" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="219"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -13353,8 +12588,8 @@
       <c r="A33" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="219"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
@@ -13365,24 +12600,24 @@
       <c r="H33" s="219"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="221" t="s">
+      <c r="A34" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="222"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="223"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="231"/>
       <c r="E34" s="144"/>
       <c r="F34" s="144"/>
       <c r="G34" s="218"/>
       <c r="H34" s="219"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="232"/>
       <c r="E35" s="145" t="s">
         <v>122</v>
       </c>
@@ -13391,50 +12626,50 @@
       <c r="H35" s="219"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="216" t="s">
+      <c r="A36" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="218"/>
       <c r="H36" s="219"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="215" t="s">
+      <c r="A37" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="215"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="215"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
       <c r="G37" s="218"/>
       <c r="H37" s="219"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="216" t="s">
+      <c r="A38" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="232"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="146"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="208"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="217"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="217" t="s">
+      <c r="A39" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="216"/>
-      <c r="C39" s="216"/>
-      <c r="D39" s="216"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="145" t="s">
         <v>122</v>
       </c>
@@ -13443,48 +12678,48 @@
       <c r="H39" s="219"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="214"/>
-      <c r="C40" s="214"/>
-      <c r="D40" s="212" t="str">
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="237" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33 &amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B33</f>
         <v>Project 1: 0 / Project 2: 0 / Project 3: 0</v>
       </c>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="213"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="238"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="211" t="s">
+      <c r="A41" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="212" t="str">
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="237" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"&amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory) / Project 3: 0 (satisfactory)</v>
       </c>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="212"/>
-      <c r="H41" s="213"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="237"/>
+      <c r="G41" s="237"/>
+      <c r="H41" s="238"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="209" t="s">
+      <c r="A42" s="235" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="209"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="210"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236"/>
       <c r="E42" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="141"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="208"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="217"/>
       <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
@@ -13532,54 +12767,12 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -13596,12 +12789,54 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -5,36 +5,37 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/PC TEMPLATES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39900A3C-B489-4592-8C49-5D065667597D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
-    <sheet name="PC 3" sheetId="20" r:id="rId4"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
-    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId7"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId8"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId9"/>
-    <sheet name="MEMO (2)" sheetId="24" r:id="rId10"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId11"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId12"/>
-    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId13"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId14"/>
-    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="25" state="hidden" r:id="rId2"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
+    <sheet name="PC 3" sheetId="20" r:id="rId5"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId6"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId7"/>
+    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId8"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId9"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId10"/>
+    <sheet name="MEMO (2)" sheetId="24" r:id="rId11"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId12"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId13"/>
+    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId14"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId15"/>
+    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">APPROVAL!$A$1:$D$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">CHECKLIST!$A$1:$H$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">MEMO!$A$1:$A$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'MEMO (2)'!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">APPROVAL!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">CHECKLIST!$A$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">MEMO!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'MEMO (2)'!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="242">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1169,6 +1170,21 @@
   </si>
   <si>
     <t>VAT</t>
+  </si>
+  <si>
+    <t>The Director,</t>
+  </si>
+  <si>
+    <t>The Chairman,</t>
+  </si>
+  <si>
+    <t>The Permanent Secretary,</t>
+  </si>
+  <si>
+    <t>The Honourable Commissioner,</t>
+  </si>
+  <si>
+    <t>The Special Adviser,</t>
   </si>
 </sst>
 </file>
@@ -4885,6 +4901,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -5954,10 +5974,219 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC162CCD-C56D-4DCB-BE6D-1755B1A2A5B1}">
+          <x14:formula1>
+            <xm:f>Sheet1!A1:A5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15">
+        <f>'PC 1'!B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="40" t="str">
+        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
+        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="str">
+        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
+        <v>0 of file, refer please.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="str">
+        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
+        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="str">
+        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
+        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="str">
+        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
+        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="str">
+        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
+        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="str">
+        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="str">
+        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="str">
+        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="str">
+        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
+        <v>0                                                                 0</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="str">
+        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
+        <v>0                                                                                                           0</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f>'PC 1'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8DADB-8654-484E-8A8B-828C7BD46CCD}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -6141,7 +6370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6199,7 +6428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6257,7 +6486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD72520-7D13-4DAD-A6E2-EECE75658B4A}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6315,7 +6544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6640,7 +6869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6966,6 +7195,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A501C249-59A6-4B45-8695-E9AAD023406F}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
@@ -7789,7 +8058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8615,7 +8884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B174F-D5E2-4CA4-83B3-17D34B5C5BF6}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9441,7 +9710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF0070C0"/>
@@ -10325,7 +10594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -11196,7 +11465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE98A78-1323-47C4-A6E8-D9B7B2EDB5E9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12067,7 +12336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -12841,201 +13110,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
-  <sheetPr codeName="Sheet5">
-    <tabColor theme="5" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15">
-        <f>'PC 1'!B56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="40" t="str">
-        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
-        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="str">
-        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
-        <v>0 of file, refer please.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="str">
-        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
-        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="str">
-        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
-        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="str">
-        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
-        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="str">
-        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
-        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="str">
-        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="str">
-        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="str">
-        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="str">
-        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
-        <v>0                                                                 0</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="str">
-        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
-        <v>0                                                                                                           0</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f>'PC 1'!B36</f>
-        <v>0</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -5,37 +5,36 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/PC TEMPLATES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39900A3C-B489-4592-8C49-5D065667597D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C544CE3-791E-45DD-B24D-2ACAEC1B006D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="25" state="hidden" r:id="rId2"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
-    <sheet name="PC 3" sheetId="20" r:id="rId5"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId6"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId7"/>
-    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId8"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId9"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId10"/>
-    <sheet name="MEMO (2)" sheetId="24" r:id="rId11"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId12"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId13"/>
-    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId14"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId15"/>
-    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId16"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
+    <sheet name="PC 3" sheetId="20" r:id="rId4"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
+    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId7"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId8"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId9"/>
+    <sheet name="MEMO (2)" sheetId="24" r:id="rId10"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId11"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId12"/>
+    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId13"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId14"/>
+    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">APPROVAL!$A$1:$D$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">CHECKLIST!$A$1:$H$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">MEMO!$A$1:$A$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'MEMO (2)'!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">APPROVAL!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">CHECKLIST!$A$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">MEMO!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'MEMO (2)'!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="237">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -457,9 +456,6 @@
   </si>
   <si>
     <t xml:space="preserve">__________________                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">________________   </t>
   </si>
   <si>
     <t>Ms. Alawiye, K.T</t>
@@ -1172,19 +1168,7 @@
     <t>VAT</t>
   </si>
   <si>
-    <t>The Director,</t>
-  </si>
-  <si>
-    <t>The Chairman,</t>
-  </si>
-  <si>
-    <t>The Permanent Secretary,</t>
-  </si>
-  <si>
-    <t>The Honourable Commissioner,</t>
-  </si>
-  <si>
-    <t>The Special Adviser,</t>
+    <t xml:space="preserve">__________________________   </t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2052,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2467,65 +2451,116 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2536,8 +2571,32 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2546,99 +2605,30 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2651,11 +2641,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4901,10 +4889,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -5291,7 +5275,7 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5317,18 +5301,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="167" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="H1" s="167" t="s">
         <v>234</v>
-      </c>
-      <c r="H1" s="167" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="159"/>
       <c r="D2" s="162"/>
@@ -5337,7 +5321,7 @@
     </row>
     <row r="3" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="168"/>
       <c r="D3" s="157"/>
@@ -5357,7 +5341,7 @@
     </row>
     <row r="5" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="69"/>
       <c r="D5" s="157"/>
@@ -5367,7 +5351,7 @@
     </row>
     <row r="6" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="69"/>
       <c r="D6" s="157"/>
@@ -5404,7 +5388,7 @@
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="75"/>
       <c r="D10" s="162"/>
@@ -5413,7 +5397,7 @@
     </row>
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="77"/>
       <c r="D11" s="162"/>
@@ -5422,7 +5406,7 @@
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="78"/>
       <c r="D12" s="162"/>
@@ -5431,7 +5415,7 @@
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="77"/>
       <c r="D13" s="162"/>
@@ -5440,7 +5424,7 @@
     </row>
     <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="78"/>
       <c r="D14" s="162"/>
@@ -5449,7 +5433,7 @@
     </row>
     <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="77"/>
       <c r="D15" s="162"/>
@@ -5458,7 +5442,7 @@
     </row>
     <row r="16" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="80"/>
       <c r="D16" s="162"/>
@@ -5467,7 +5451,7 @@
     </row>
     <row r="17" spans="1:9" s="178" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="177">
         <v>7.4999999999999997E-2</v>
@@ -5483,7 +5467,7 @@
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="163" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="164">
         <f>'PC 1'!B12</f>
@@ -5502,7 +5486,7 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" t="str">
@@ -5528,7 +5512,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="159"/>
       <c r="D23" s="162"/>
@@ -5537,7 +5521,7 @@
     </row>
     <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="84"/>
       <c r="D24" s="162"/>
@@ -5546,7 +5530,7 @@
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="86"/>
       <c r="D25" s="162"/>
@@ -5564,7 +5548,7 @@
     </row>
     <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="88"/>
       <c r="D27" s="162"/>
@@ -5582,7 +5566,7 @@
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="88"/>
       <c r="D29" s="162"/>
@@ -5637,7 +5621,7 @@
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="176"/>
       <c r="D35" s="162"/>
@@ -5646,7 +5630,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="90"/>
       <c r="D36" s="162"/>
@@ -5661,7 +5645,7 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="159"/>
       <c r="D39" s="162"/>
@@ -5670,7 +5654,7 @@
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="92"/>
       <c r="D40" s="162"/>
@@ -5679,7 +5663,7 @@
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="88"/>
       <c r="D41" s="162"/>
@@ -5688,7 +5672,7 @@
     </row>
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" s="88"/>
       <c r="D42" s="162"/>
@@ -5697,7 +5681,7 @@
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="88"/>
       <c r="D43" s="162"/>
@@ -5706,7 +5690,7 @@
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="88"/>
       <c r="D44" s="162"/>
@@ -5717,7 +5701,7 @@
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="88"/>
       <c r="D45" s="162"/>
@@ -5726,7 +5710,7 @@
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="88"/>
       <c r="D46" s="162"/>
@@ -5735,7 +5719,7 @@
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" s="88"/>
       <c r="D47" s="162"/>
@@ -5744,7 +5728,7 @@
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" s="88"/>
       <c r="D48" s="162"/>
@@ -5753,7 +5737,7 @@
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="88"/>
       <c r="D49" s="162"/>
@@ -5762,7 +5746,7 @@
     </row>
     <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="88"/>
       <c r="D50" s="162"/>
@@ -5780,7 +5764,7 @@
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="88"/>
       <c r="D52" s="162"/>
@@ -5789,7 +5773,7 @@
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="88"/>
       <c r="D53" s="162"/>
@@ -5807,7 +5791,7 @@
     </row>
     <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="88"/>
       <c r="D55" s="162"/>
@@ -5816,7 +5800,7 @@
     </row>
     <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="88"/>
       <c r="D56" s="162"/>
@@ -5825,7 +5809,7 @@
     </row>
     <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="88"/>
       <c r="D57" s="162"/>
@@ -5834,7 +5818,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="88"/>
       <c r="D58" s="162"/>
@@ -5849,7 +5833,7 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="158" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" s="159"/>
       <c r="D61" s="162"/>
@@ -5858,21 +5842,21 @@
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="92"/>
       <c r="D62" s="162"/>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" s="88"/>
       <c r="D63" s="162"/>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="154" t="str">
         <f>B3&amp;","</f>
@@ -5882,28 +5866,28 @@
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="88"/>
       <c r="D65" s="162"/>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="88"/>
       <c r="D66" s="162"/>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="88"/>
       <c r="D67" s="162"/>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="88"/>
       <c r="D68" s="162"/>
@@ -5912,7 +5896,7 @@
     </row>
     <row r="69" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="90"/>
       <c r="D69" s="162"/>
@@ -5927,7 +5911,7 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="158" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B72" s="159"/>
       <c r="D72" s="162"/>
@@ -5936,25 +5920,25 @@
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="92"/>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="88"/>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" s="88"/>
     </row>
     <row r="76" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="90"/>
     </row>
@@ -5974,219 +5958,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC162CCD-C56D-4DCB-BE6D-1755B1A2A5B1}">
-          <x14:formula1>
-            <xm:f>Sheet1!A1:A5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B63</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
-  <sheetPr codeName="Sheet5">
-    <tabColor theme="5" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15">
-        <f>'PC 1'!B56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="40" t="str">
-        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
-        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="str">
-        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
-        <v>0 of file, refer please.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="str">
-        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
-        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="str">
-        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
-        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="str">
-        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
-        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="str">
-        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
-        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="str">
-        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="str">
-        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="str">
-        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="str">
-        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
-        <v>0                                                                 0</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="str">
-        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
-        <v>0                                                                                                           0</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f>'PC 1'!B36</f>
-        <v>0</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8DADB-8654-484E-8A8B-828C7BD46CCD}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -6205,7 +5980,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -6231,12 +6006,12 @@
     </row>
     <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -6246,7 +6021,7 @@
     </row>
     <row r="12" spans="1:1" ht="95.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
@@ -6254,7 +6029,7 @@
     </row>
     <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -6267,58 +6042,58 @@
     </row>
     <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -6328,7 +6103,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -6336,7 +6111,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>52</v>
@@ -6352,7 +6127,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -6370,7 +6145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6392,7 +6167,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6428,7 +6203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6450,7 +6225,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6486,7 +6261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD72520-7D13-4DAD-A6E2-EECE75658B4A}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6508,7 +6283,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6544,7 +6319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6565,155 +6340,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="249"/>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="249"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="249"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="249"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="250" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="244"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="250">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="243" t="str">
+      <c r="A10" s="242" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="243">
+      <c r="A11" s="242">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="243">
+      <c r="A12" s="242">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="243">
+      <c r="A13" s="242">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="243"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="244" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
+      <c r="A15" s="245" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="245" t="str">
+      <c r="A16" s="247" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
         <v>0 &amp; 0 &amp; 0</v>
       </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="246" t="str">
+      <c r="A18" s="248" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" &amp; "&amp;'PC 3'!B64&amp;" dated "&amp;'PC 1'!B65 &amp;" &amp; "&amp;'PC 2'!B65&amp;" &amp; "&amp;'PC 3'!B65 &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 &amp; 0 dated 0 &amp; 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="247"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
+      <c r="A19" s="249"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="C20" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -6773,48 +6548,373 @@
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="250" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A26" s="242"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="242" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="242"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="246" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+    </row>
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A31" s="31"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A34" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="244" t="str">
+        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="245"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="244">
+        <f>'PC 1'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="242" t="str">
+        <f>'PC 1'!B60</f>
+        <v>,</v>
+      </c>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="242">
+        <f>'PC 1'!B61</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="242">
+        <f>'PC 1'!B62</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="242"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="242">
+        <f>'PC 1'!B63</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="242"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="245" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="247" t="str">
+        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
+        <v>0 &amp; 0 &amp; 0</v>
+      </c>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="248" t="str">
+        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="249"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <f>'PC 1'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f>'PC 1'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="str">
+        <f>'PC 1'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A22" s="52">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53">
+        <f>'PC 2'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <f>'PC 2'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>'PC 2'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A23" s="52">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <f>'PC 3'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <f>'PC 3'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>'PC 3'!B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="250" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="243"/>
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
+      <c r="A26" s="242"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="242" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="242"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A30" s="246" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="243"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="242" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="242" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="31"/>
@@ -6869,372 +6969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="249"/>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="249"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="249"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="249"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="250" t="str">
-        <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>0                                                                             0</v>
-      </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="244"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="250">
-        <f>'PC 1'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="243" t="str">
-        <f>'PC 1'!B60</f>
-        <v>,</v>
-      </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="243">
-        <f>'PC 1'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="243">
-        <f>'PC 1'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="243">
-        <f>'PC 1'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="243"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="244" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="245" t="str">
-        <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24&amp; " " &amp; "&amp;" &amp; " " &amp;'PC 3'!B24</f>
-        <v>0 &amp; 0 &amp; 0</v>
-      </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="246" t="str">
-        <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" dated "&amp;'PC 1'!B65  &amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="247"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'PC 1'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
-        <f>'PC 1'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="55" t="str">
-        <f>'PC 1'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
-        <v>2</v>
-      </c>
-      <c r="B22" s="53">
-        <f>'PC 2'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
-        <f>'PC 2'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f>'PC 2'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <f>'PC 3'!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
-        <f>'PC 3'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>'PC 3'!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="248" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A26" s="243"/>
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="243" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="243"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="242" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A30" s="242" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-    </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A34" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A501C249-59A6-4B45-8695-E9AAD023406F}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
@@ -7281,7 +7016,7 @@
     </row>
     <row r="3" spans="1:9" s="126" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="124">
         <f>DETAILS!B11</f>
@@ -7293,7 +7028,7 @@
     </row>
     <row r="4" spans="1:9" s="122" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="127">
         <f>D4*B2</f>
@@ -7375,7 +7110,7 @@
     </row>
     <row r="10" spans="1:9" s="122" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="127">
         <f>B4*D10</f>
@@ -7427,7 +7162,7 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="43">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -7540,7 +7275,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!B25</f>
@@ -7571,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!B27</f>
@@ -7605,7 +7340,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!B29</f>
@@ -7677,7 +7412,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="44">
         <f>DETAILS!B35</f>
@@ -7689,7 +7424,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="44">
         <f>DETAILS!B36</f>
@@ -7701,7 +7436,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="48">
         <f>DETAILS!B24</f>
@@ -7713,7 +7448,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="49">
         <f>DETAILS!B56</f>
@@ -7725,7 +7460,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="44">
         <f>DETAILS!B40</f>
@@ -7737,7 +7472,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="44">
         <f>DETAILS!B41</f>
@@ -7749,7 +7484,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="44">
         <f>DETAILS!B42</f>
@@ -7761,7 +7496,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="44">
         <f>DETAILS!B43</f>
@@ -7773,7 +7508,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="44">
         <f>DETAILS!B44</f>
@@ -7785,7 +7520,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="44">
         <f>DETAILS!B46</f>
@@ -7797,7 +7532,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="44">
         <f>DETAILS!B47</f>
@@ -7809,7 +7544,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="44">
         <f>DETAILS!B48</f>
@@ -7821,7 +7556,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="44">
         <f>DETAILS!B49</f>
@@ -7833,7 +7568,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="44">
         <f>DETAILS!B50</f>
@@ -7857,7 +7592,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="44">
         <f>DETAILS!B52</f>
@@ -7869,7 +7604,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="44">
         <f>DETAILS!B53</f>
@@ -7893,7 +7628,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="44">
         <f>DETAILS!B55</f>
@@ -7905,7 +7640,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="50">
         <f>DETAILS!B45</f>
@@ -7917,7 +7652,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="50">
         <f>DETAILS!B57</f>
@@ -7929,7 +7664,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="50">
         <f>DETAILS!B58</f>
@@ -7938,7 +7673,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="45">
         <f>DETAILS!B62</f>
@@ -7947,7 +7682,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="44">
         <f>DETAILS!B63</f>
@@ -7956,7 +7691,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="44" t="str">
         <f>DETAILS!B64</f>
@@ -7965,7 +7700,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="44">
         <f>DETAILS!B65</f>
@@ -7974,7 +7709,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="44">
         <f>DETAILS!B66</f>
@@ -7983,7 +7718,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="44">
         <f>DETAILS!B67</f>
@@ -7992,7 +7727,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="44">
         <f>DETAILS!B68</f>
@@ -8001,7 +7736,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="44">
         <f>DETAILS!B69</f>
@@ -8015,7 +7750,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="64">
         <f>DETAILS!B73</f>
@@ -8024,7 +7759,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="64">
         <f>DETAILS!B74</f>
@@ -8033,7 +7768,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="64">
         <f>DETAILS!B75</f>
@@ -8042,7 +7777,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="64">
         <f>DETAILS!B76</f>
@@ -8058,7 +7793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8104,7 +7839,7 @@
     </row>
     <row r="3" spans="1:9" s="103" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="101">
         <f>DETAILS!E11</f>
@@ -8116,7 +7851,7 @@
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="104">
         <f>D4*B2</f>
@@ -8198,7 +7933,7 @@
     </row>
     <row r="10" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="104">
         <f>B4*D10</f>
@@ -8250,7 +7985,7 @@
     </row>
     <row r="14" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="113">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -8363,7 +8098,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!E25</f>
@@ -8394,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!E27</f>
@@ -8428,7 +8163,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!E29</f>
@@ -8500,7 +8235,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="114">
         <f>DETAILS!E35</f>
@@ -8512,7 +8247,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="114">
         <f>DETAILS!E36</f>
@@ -8524,7 +8259,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="115">
         <f>DETAILS!E24</f>
@@ -8536,7 +8271,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="116">
         <f>DETAILS!E56</f>
@@ -8548,7 +8283,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="114">
         <f>DETAILS!E40</f>
@@ -8560,7 +8295,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="114">
         <f>DETAILS!E41</f>
@@ -8572,7 +8307,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="114">
         <f>DETAILS!E42</f>
@@ -8584,7 +8319,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="114">
         <f>DETAILS!E43</f>
@@ -8596,7 +8331,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="114">
         <f>DETAILS!E44</f>
@@ -8608,7 +8343,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="114">
         <f>DETAILS!E46</f>
@@ -8620,7 +8355,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="114">
         <f>DETAILS!E47</f>
@@ -8632,7 +8367,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="114">
         <f>DETAILS!E48</f>
@@ -8644,7 +8379,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="114">
         <f>DETAILS!E49</f>
@@ -8656,7 +8391,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="114">
         <f>DETAILS!E50</f>
@@ -8680,7 +8415,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="114">
         <f>DETAILS!E52</f>
@@ -8692,7 +8427,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="114">
         <f>DETAILS!E53</f>
@@ -8716,7 +8451,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="114">
         <f>DETAILS!E55</f>
@@ -8728,7 +8463,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="117">
         <f>DETAILS!E45</f>
@@ -8740,7 +8475,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="117">
         <f>DETAILS!E57</f>
@@ -8752,7 +8487,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="117">
         <f>DETAILS!E58</f>
@@ -8761,7 +8496,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="118">
         <f>DETAILS!E62</f>
@@ -8770,7 +8505,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="114">
         <f>DETAILS!E63</f>
@@ -8779,7 +8514,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="114">
         <f>DETAILS!E64</f>
@@ -8788,7 +8523,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="114">
         <f>DETAILS!E65</f>
@@ -8797,7 +8532,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="114">
         <f>DETAILS!E66</f>
@@ -8806,7 +8541,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="114">
         <f>DETAILS!E67</f>
@@ -8815,7 +8550,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="114">
         <f>DETAILS!E68</f>
@@ -8824,7 +8559,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="114">
         <f>DETAILS!E69</f>
@@ -8840,7 +8575,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!E73</f>
@@ -8849,7 +8584,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!E74</f>
@@ -8858,7 +8593,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!E75</f>
@@ -8867,7 +8602,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!E76</f>
@@ -8884,7 +8619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B174F-D5E2-4CA4-83B3-17D34B5C5BF6}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8930,7 +8665,7 @@
     </row>
     <row r="3" spans="1:9" s="103" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="101">
         <f>DETAILS!H11</f>
@@ -8942,7 +8677,7 @@
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="104">
         <f>D4*B2</f>
@@ -9024,7 +8759,7 @@
     </row>
     <row r="10" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="104">
         <f>B4*D10</f>
@@ -9076,7 +8811,7 @@
     </row>
     <row r="14" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="113">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -9189,7 +8924,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!H25</f>
@@ -9220,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!H27</f>
@@ -9254,7 +8989,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!H29</f>
@@ -9326,7 +9061,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="114">
         <f>DETAILS!H35</f>
@@ -9338,7 +9073,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="114">
         <f>DETAILS!H36</f>
@@ -9350,7 +9085,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="115">
         <f>DETAILS!H24</f>
@@ -9362,7 +9097,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="116">
         <f>DETAILS!H56</f>
@@ -9374,7 +9109,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="114">
         <f>DETAILS!H40</f>
@@ -9386,7 +9121,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="114">
         <f>DETAILS!H41</f>
@@ -9398,7 +9133,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="114">
         <f>DETAILS!H42</f>
@@ -9410,7 +9145,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="114">
         <f>DETAILS!H43</f>
@@ -9422,7 +9157,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="114">
         <f>DETAILS!H44</f>
@@ -9434,7 +9169,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="114">
         <f>DETAILS!H46</f>
@@ -9446,7 +9181,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="114">
         <f>DETAILS!H47</f>
@@ -9458,7 +9193,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="114">
         <f>DETAILS!H48</f>
@@ -9470,7 +9205,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="114">
         <f>DETAILS!H49</f>
@@ -9482,7 +9217,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="114">
         <f>DETAILS!H50</f>
@@ -9506,7 +9241,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="114">
         <f>DETAILS!H52</f>
@@ -9518,7 +9253,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="114">
         <f>DETAILS!H53</f>
@@ -9542,7 +9277,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="114">
         <f>DETAILS!H55</f>
@@ -9554,7 +9289,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="117">
         <f>DETAILS!H45</f>
@@ -9566,7 +9301,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="117">
         <f>DETAILS!H57</f>
@@ -9578,7 +9313,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="117">
         <f>DETAILS!H58</f>
@@ -9587,7 +9322,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="118">
         <f>DETAILS!H62</f>
@@ -9596,7 +9331,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="114">
         <f>DETAILS!H63</f>
@@ -9605,7 +9340,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="114">
         <f>DETAILS!H64</f>
@@ -9614,7 +9349,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="114">
         <f>DETAILS!H65</f>
@@ -9623,7 +9358,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="114">
         <f>DETAILS!H66</f>
@@ -9632,7 +9367,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="114">
         <f>DETAILS!H67</f>
@@ -9641,7 +9376,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="114">
         <f>DETAILS!H68</f>
@@ -9650,7 +9385,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="114">
         <f>DETAILS!H69</f>
@@ -9666,7 +9401,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!H73</f>
@@ -9675,7 +9410,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!H74</f>
@@ -9684,7 +9419,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!H75</f>
@@ -9693,7 +9428,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!H76</f>
@@ -9710,7 +9445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF0070C0"/>
@@ -9741,79 +9476,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -9822,16 +9557,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -9840,16 +9575,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -9858,16 +9593,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -9876,16 +9611,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -9894,16 +9629,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -9912,34 +9647,34 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="185">
+        <v>188</v>
+      </c>
+      <c r="C14" s="199">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -9948,16 +9683,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -9966,16 +9701,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -9984,16 +9719,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10002,16 +9737,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10036,7 +9771,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 1'!B3</f>
@@ -10110,16 +9845,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -10128,16 +9863,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -10177,7 +9912,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -10195,44 +9930,44 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -10251,61 +9986,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -10321,207 +10056,207 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203" t="s">
+      <c r="A47" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="203"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="197" t="s">
+      <c r="A50" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="198"/>
-      <c r="C50" s="204" t="s">
+      <c r="B50" s="190"/>
+      <c r="C50" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="206" t="s">
+      <c r="D50" s="188"/>
+      <c r="E50" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="206"/>
-      <c r="G50" s="206"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="206"/>
+      <c r="F50" s="193"/>
+      <c r="G50" s="193"/>
+      <c r="H50" s="193"/>
+      <c r="I50" s="193"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="200"/>
-      <c r="C52" s="201" t="s">
+      <c r="B52" s="185"/>
+      <c r="C52" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="201"/>
-      <c r="E52" s="186" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10530,6 +10265,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IOoMU3FCnDWRKCicOL+mVhKm6FmEl5ed2f4pYj0z8gTfGaD6HMCstSmY5HD14iMrFEd7Qf4EaKMXP60KSctE9Q==" saltValue="tuxC1ENlJbVAc3parbGQMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -10546,46 +10321,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10594,7 +10329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -10625,79 +10360,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10706,16 +10441,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -10724,16 +10459,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -10742,16 +10477,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -10760,16 +10495,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -10778,16 +10513,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -10796,16 +10531,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -10814,16 +10549,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="199">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -10832,16 +10567,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -10850,16 +10585,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -10868,16 +10603,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -10886,16 +10621,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -10920,7 +10655,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 2'!B3</f>
@@ -10994,16 +10729,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11012,16 +10747,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11061,7 +10796,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -11079,44 +10814,44 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -11135,61 +10870,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -11205,195 +10940,195 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="204" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="203"/>
-      <c r="E49" s="206" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="200" t="s">
+      <c r="A50" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="200"/>
-      <c r="C50" s="201" t="s">
+      <c r="B50" s="185"/>
+      <c r="C50" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="201"/>
-      <c r="E50" s="186" t="s">
+      <c r="D50" s="186"/>
+      <c r="E50" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11402,46 +11137,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z8Ip5U2P5Qe8Dj8foCKMI6qtPUIqRA4nz1t/A56y1klTu0P6zb9F3VGBE81bIV76G6yxIuq6Qvi2IhY8ugi6pA==" saltValue="Easln7jev24SmPXlTZdoFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -11458,6 +11153,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11465,7 +11200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE98A78-1323-47C4-A6E8-D9B7B2EDB5E9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -11496,79 +11231,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="186">
+      <c r="A2" s="194">
         <f>'PC 3'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 3'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11577,16 +11312,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="198">
         <f>'PC 3'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -11595,16 +11330,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="199">
         <f>'PC 3'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -11613,16 +11348,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="199">
         <f>'PC 3'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -11631,16 +11366,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="190">
+      <c r="C11" s="206">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -11649,16 +11384,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="199">
         <f>'PC 3'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -11667,16 +11402,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="199">
         <f>'PC 3'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -11685,16 +11420,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="199">
         <f>'PC 3'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -11703,16 +11438,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="199">
         <f>'PC 3'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -11721,16 +11456,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="199">
         <f>'PC 3'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -11739,16 +11474,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="199">
         <f>'PC 3'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -11757,16 +11492,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="199">
         <f>'PC 3'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -11791,7 +11526,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 3'!B3</f>
@@ -11865,16 +11600,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="197">
         <f>'PC 3'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -11883,16 +11618,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="199">
         <f>'PC 3'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -11932,7 +11667,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -11950,44 +11685,44 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="195" t="s">
@@ -12006,61 +11741,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="195" t="s">
@@ -12076,195 +11811,195 @@
       <c r="I37" s="195"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="str">
+      <c r="A38" s="201" t="str">
         <f>'PC 3'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
+      <c r="A40" s="201"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="196"/>
-      <c r="B41" s="196"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="194" t="s">
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="193"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="191">
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="200">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="191">
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="200">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="202"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="205">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="192">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="203"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="203"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
+      <c r="A48" s="188"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="204" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="203"/>
-      <c r="E49" s="206" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="200" t="s">
+      <c r="A50" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="200"/>
-      <c r="C50" s="201" t="s">
+      <c r="B50" s="185"/>
+      <c r="C50" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="201"/>
-      <c r="E50" s="186" t="s">
+      <c r="D50" s="186"/>
+      <c r="E50" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="201" t="s">
+      <c r="B51" s="185"/>
+      <c r="C51" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="186" t="s">
+      <c r="D51" s="186"/>
+      <c r="E51" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12273,12 +12008,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="la5N3zMg15q2+T54YhWBTw1joYEpOZV1eUv5nsM1Ib3D9QVLu45SwfS+bdGAia+IyRaqwTfhaU41y7SOUKsSVA==" saltValue="HG73qQhhl2e/sN0Tn56x8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:I49"/>
@@ -12293,42 +12058,12 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12336,7 +12071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -12344,8 +12079,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="39" x14ac:dyDescent="0.75"/>
@@ -12362,63 +12097,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
     </row>
     <row r="2" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
     </row>
     <row r="3" spans="1:8" s="134" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:8" s="134" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="220"/>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="166" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="221">
+        <v>172</v>
+      </c>
+      <c r="B5" s="235">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
       <c r="G5" s="166" t="s">
         <v>118</v>
       </c>
@@ -12429,48 +12164,48 @@
     </row>
     <row r="6" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="221">
+        <v>174</v>
+      </c>
+      <c r="B6" s="235">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
       <c r="G6" s="166"/>
       <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A7" s="166" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="221">
+        <v>216</v>
+      </c>
+      <c r="B7" s="235">
         <f>'PC 3'!B23</f>
         <v>0</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
       <c r="G7" s="166"/>
       <c r="H7" s="135"/>
     </row>
     <row r="8" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
       <c r="A8" s="166" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="221">
+        <v>173</v>
+      </c>
+      <c r="B8" s="235">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="137" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27 &amp; "/" &amp; 'PC 3'!B27</f>
@@ -12481,16 +12216,16 @@
       <c r="A9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="211" t="str">
+      <c r="B9" s="236" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="G9" s="139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="137" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30 &amp; "/" &amp; 'PC 3'!B30</f>
@@ -12499,37 +12234,37 @@
     </row>
     <row r="10" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
       <c r="A10" s="166" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="212" t="str">
+        <v>212</v>
+      </c>
+      <c r="B10" s="237" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
         <v>0/0/0</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
       <c r="G10" s="139" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="136" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="236">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
       <c r="G11" s="139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="137" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1&amp; "/" &amp; 'PC 3'!B1</f>
@@ -12540,51 +12275,51 @@
       <c r="A12" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="211" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
+      <c r="B12" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="210"/>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
+      <c r="A13" s="233"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="215"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="133" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="216" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="217"/>
+      <c r="H14" s="208"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="218" t="str">
@@ -12594,14 +12329,14 @@
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="226"/>
       <c r="E16" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="141"/>
       <c r="G16" s="218" t="str">
@@ -12611,14 +12346,14 @@
       <c r="H16" s="219"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="226"/>
       <c r="E17" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="218" t="str">
@@ -12628,14 +12363,14 @@
       <c r="H17" s="219"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="141"/>
       <c r="G18" s="218" t="str">
@@ -12645,15 +12380,15 @@
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="207">
+      <c r="A19" s="224">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="141"/>
       <c r="G19" s="218" t="str">
@@ -12663,15 +12398,15 @@
       <c r="H19" s="219"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="207" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
+      <c r="A20" s="224" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="225"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="226"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="218" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
@@ -12680,15 +12415,15 @@
       <c r="H20" s="219"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="218" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
@@ -12697,12 +12432,12 @@
       <c r="H21" s="219"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="207" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
+      <c r="A22" s="224" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="225"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="140"/>
       <c r="F22" s="140"/>
       <c r="G22" s="218" t="str">
@@ -12712,15 +12447,15 @@
       <c r="H22" s="219"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="226"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G23" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
@@ -12729,12 +12464,12 @@
       <c r="H23" s="219"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="207" t="s">
+      <c r="A24" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="228"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
       <c r="G24" s="218" t="str">
@@ -12745,37 +12480,37 @@
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A25" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="223">
+        <v>127</v>
+      </c>
+      <c r="B25" s="227">
         <f>'PC 1'!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="224"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="228"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
       <c r="E26" s="146"/>
       <c r="F26" s="146"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="227"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="231"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="218" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
+        <v>123</v>
+      </c>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
       <c r="D27" s="219"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -12786,10 +12521,10 @@
     </row>
     <row r="28" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A28" s="218" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="222"/>
-      <c r="C28" s="222"/>
+        <v>122</v>
+      </c>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
       <c r="D28" s="219"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -12802,8 +12537,8 @@
       <c r="A29" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="222"/>
-      <c r="C29" s="222"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="220"/>
       <c r="D29" s="219"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -12816,8 +12551,8 @@
       <c r="A30" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
       <c r="D30" s="219"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -12830,8 +12565,8 @@
       <c r="A31" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="222"/>
-      <c r="C31" s="222"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
       <c r="D31" s="219"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -12842,8 +12577,8 @@
       <c r="A32" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="222"/>
-      <c r="C32" s="222"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
       <c r="D32" s="219"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -12857,8 +12592,8 @@
       <c r="A33" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="222"/>
-      <c r="C33" s="222"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
       <c r="D33" s="219"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
@@ -12869,126 +12604,126 @@
       <c r="H33" s="219"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="229" t="s">
+      <c r="A34" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="230"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="231"/>
+      <c r="B34" s="222"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="223"/>
       <c r="E34" s="144"/>
       <c r="F34" s="144"/>
       <c r="G34" s="218"/>
       <c r="H34" s="219"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="232" t="s">
+      <c r="A35" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="232"/>
-      <c r="C35" s="232"/>
-      <c r="D35" s="232"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" s="144"/>
       <c r="G35" s="218"/>
       <c r="H35" s="219"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="232"/>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="218"/>
       <c r="H36" s="219"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="233" t="s">
+      <c r="A37" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="233"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
       <c r="E37" s="145"/>
       <c r="F37" s="144"/>
       <c r="G37" s="218"/>
       <c r="H37" s="219"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="232"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="232"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
       <c r="E38" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="146"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="217"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="208"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="234" t="s">
+      <c r="A39" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="232"/>
-      <c r="C39" s="232"/>
-      <c r="D39" s="232"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
       <c r="E39" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="144"/>
       <c r="G39" s="218"/>
       <c r="H39" s="219"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="239" t="s">
+      <c r="A40" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="237" t="str">
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="212" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33 &amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B33</f>
         <v>Project 1: 0 / Project 2: 0 / Project 3: 0</v>
       </c>
-      <c r="E40" s="237"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="238"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="213"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="214" t="s">
+      <c r="A41" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="237" t="str">
+      <c r="B41" s="211"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"&amp; " / " &amp;"Project 3: " &amp; 'PC 3'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory) / Project 3: 0 (satisfactory)</v>
       </c>
-      <c r="E41" s="237"/>
-      <c r="F41" s="237"/>
-      <c r="G41" s="237"/>
-      <c r="H41" s="238"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="213"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A42" s="235" t="s">
+      <c r="A42" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="236"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="210"/>
       <c r="E42" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="141"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="217"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="208"/>
       <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
@@ -13000,33 +12735,39 @@
       <c r="A44" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="149" t="s">
-        <v>120</v>
-      </c>
+      <c r="D44" s="149"/>
       <c r="E44" s="148"/>
       <c r="F44" s="148"/>
+      <c r="G44" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="252"/>
     </row>
     <row r="45" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A45" s="148">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="D45" s="136">
+      <c r="E45" s="251"/>
+      <c r="G45" s="252">
         <f>'PC 1'!B70</f>
         <v>0</v>
       </c>
+      <c r="H45" s="252"/>
     </row>
     <row r="46" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A46" s="148">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="D46" s="148">
-        <f>'PC 1'!B71</f>
-        <v>0</v>
-      </c>
+      <c r="D46" s="148"/>
       <c r="E46" s="148"/>
       <c r="F46" s="148"/>
+      <c r="G46" s="252">
+        <f>'PC 1'!B71</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="252"/>
     </row>
     <row r="47" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A47" s="150">
@@ -13035,13 +12776,58 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
+  <mergeCells count="73">
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -13058,56 +12844,211 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15">
+        <f>'PC 1'!B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="40" t="str">
+        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
+        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="str">
+        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
+        <v>0 of file, refer please.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="str">
+        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
+        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="str">
+        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
+        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="str">
+        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
+        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="str">
+        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
+        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="str">
+        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="str">
+        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="str">
+        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="str">
+        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
+        <v>0                                                                 0</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="str">
+        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
+        <v>0                                                                                                           0</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f>'PC 1'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PC Template 3.xlsx
+++ b/PC Template 3.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{1831B228-2376-4617-A416-0AD811779B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C544CE3-791E-45DD-B24D-2ACAEC1B006D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="121_{285393C7-26E9-491A-B579-6F46D77C59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A954C9-07AC-4DCC-9F3D-DCB564F11A74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
-    <sheet name="PC 3" sheetId="20" r:id="rId4"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
-    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId7"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId8"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId9"/>
-    <sheet name="MEMO (2)" sheetId="24" r:id="rId10"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId11"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId12"/>
-    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId13"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId14"/>
-    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="25" state="hidden" r:id="rId2"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
+    <sheet name="PC 3" sheetId="20" r:id="rId5"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId6"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId7"/>
+    <sheet name="INSPECTION REPORT 3" sheetId="23" r:id="rId8"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId9"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId10"/>
+    <sheet name="MEMO (2)" sheetId="24" r:id="rId11"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId12"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId13"/>
+    <sheet name="MED PICTURES (C)" sheetId="22" r:id="rId14"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId15"/>
+    <sheet name="APPROVAL (one reference)" sheetId="21" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">APPROVAL!$A$1:$D$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">CHECKLIST!$A$1:$H$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">MEMO!$A$1:$A$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'MEMO (2)'!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">APPROVAL!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">CHECKLIST!$A$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">MEMO!$A$1:$A$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'MEMO (2)'!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="243">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -456,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">__________________                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">________________   </t>
   </si>
   <si>
     <t>Ms. Alawiye, K.T</t>
@@ -1168,7 +1172,22 @@
     <t>VAT</t>
   </si>
   <si>
-    <t xml:space="preserve">__________________________   </t>
+    <t>The Director,</t>
+  </si>
+  <si>
+    <t>The Chairman,</t>
+  </si>
+  <si>
+    <t>The Permanent Secretary,</t>
+  </si>
+  <si>
+    <t>The Honourable Commissioner,</t>
+  </si>
+  <si>
+    <t>The Special Adviser,</t>
+  </si>
+  <si>
+    <t>The General Manager,</t>
   </si>
 </sst>
 </file>
@@ -2641,9 +2660,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5275,11 +5296,11 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5301,18 +5322,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E1" s="167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" s="167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="158" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="159"/>
       <c r="D2" s="162"/>
@@ -5321,7 +5342,7 @@
     </row>
     <row r="3" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" s="168"/>
       <c r="D3" s="157"/>
@@ -5341,7 +5362,7 @@
     </row>
     <row r="5" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="69"/>
       <c r="D5" s="157"/>
@@ -5351,7 +5372,7 @@
     </row>
     <row r="6" spans="1:9" s="67" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="69"/>
       <c r="D6" s="157"/>
@@ -5388,7 +5409,7 @@
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B10" s="75"/>
       <c r="D10" s="162"/>
@@ -5397,7 +5418,7 @@
     </row>
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B11" s="77"/>
       <c r="D11" s="162"/>
@@ -5406,7 +5427,7 @@
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B12" s="78"/>
       <c r="D12" s="162"/>
@@ -5415,7 +5436,7 @@
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13" s="77"/>
       <c r="D13" s="162"/>
@@ -5424,7 +5445,7 @@
     </row>
     <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B14" s="78"/>
       <c r="D14" s="162"/>
@@ -5433,7 +5454,7 @@
     </row>
     <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="77"/>
       <c r="D15" s="162"/>
@@ -5442,7 +5463,7 @@
     </row>
     <row r="16" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" s="80"/>
       <c r="D16" s="162"/>
@@ -5451,7 +5472,7 @@
     </row>
     <row r="17" spans="1:9" s="178" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="158" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B17" s="177">
         <v>7.4999999999999997E-2</v>
@@ -5467,7 +5488,7 @@
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="164">
         <f>'PC 1'!B12</f>
@@ -5486,7 +5507,7 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" t="str">
@@ -5512,7 +5533,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="159"/>
       <c r="D23" s="162"/>
@@ -5521,7 +5542,7 @@
     </row>
     <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="84"/>
       <c r="D24" s="162"/>
@@ -5530,7 +5551,7 @@
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="86"/>
       <c r="D25" s="162"/>
@@ -5548,7 +5569,7 @@
     </row>
     <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B27" s="88"/>
       <c r="D27" s="162"/>
@@ -5566,7 +5587,7 @@
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="88"/>
       <c r="D29" s="162"/>
@@ -5621,7 +5642,7 @@
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="175" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" s="176"/>
       <c r="D35" s="162"/>
@@ -5630,7 +5651,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B36" s="90"/>
       <c r="D36" s="162"/>
@@ -5645,7 +5666,7 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="158" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" s="159"/>
       <c r="D39" s="162"/>
@@ -5654,7 +5675,7 @@
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="92"/>
       <c r="D40" s="162"/>
@@ -5663,7 +5684,7 @@
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="88"/>
       <c r="D41" s="162"/>
@@ -5672,7 +5693,7 @@
     </row>
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="88"/>
       <c r="D42" s="162"/>
@@ -5681,7 +5702,7 @@
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="88"/>
       <c r="D43" s="162"/>
@@ -5690,7 +5711,7 @@
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="88"/>
       <c r="D44" s="162"/>
@@ -5701,7 +5722,7 @@
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" s="88"/>
       <c r="D45" s="162"/>
@@ -5710,7 +5731,7 @@
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="88"/>
       <c r="D46" s="162"/>
@@ -5719,7 +5740,7 @@
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" s="88"/>
       <c r="D47" s="162"/>
@@ -5728,7 +5749,7 @@
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B48" s="88"/>
       <c r="D48" s="162"/>
@@ -5737,7 +5758,7 @@
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="88"/>
       <c r="D49" s="162"/>
@@ -5746,7 +5767,7 @@
     </row>
     <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="88"/>
       <c r="D50" s="162"/>
@@ -5764,7 +5785,7 @@
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="88"/>
       <c r="D52" s="162"/>
@@ -5773,7 +5794,7 @@
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="88"/>
       <c r="D53" s="162"/>
@@ -5791,7 +5812,7 @@
     </row>
     <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="88"/>
       <c r="D55" s="162"/>
@@ -5800,7 +5821,7 @@
     </row>
     <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B56" s="88"/>
       <c r="D56" s="162"/>
@@ -5809,7 +5830,7 @@
     </row>
     <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="88"/>
       <c r="D57" s="162"/>
@@ -5818,7 +5839,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B58" s="88"/>
       <c r="D58" s="162"/>
@@ -5833,7 +5854,7 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="158" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B61" s="159"/>
       <c r="D61" s="162"/>
@@ -5842,21 +5863,21 @@
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="92"/>
       <c r="D62" s="162"/>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B63" s="88"/>
       <c r="D63" s="162"/>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B64" s="154" t="str">
         <f>B3&amp;","</f>
@@ -5866,28 +5887,28 @@
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" s="88"/>
       <c r="D65" s="162"/>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="88"/>
       <c r="D66" s="162"/>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="88"/>
       <c r="D67" s="162"/>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" s="88"/>
       <c r="D68" s="162"/>
@@ -5896,7 +5917,7 @@
     </row>
     <row r="69" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" s="90"/>
       <c r="D69" s="162"/>
@@ -5911,7 +5932,7 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="158" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B72" s="159"/>
       <c r="D72" s="162"/>
@@ -5920,25 +5941,25 @@
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B73" s="92"/>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B74" s="88"/>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" s="88"/>
     </row>
     <row r="76" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B76" s="90"/>
     </row>
@@ -5958,10 +5979,219 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC162CCD-C56D-4DCB-BE6D-1755B1A2A5B1}">
+          <x14:formula1>
+            <xm:f>Sheet1!A1:A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15">
+        <f>'PC 1'!B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="40" t="str">
+        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
+        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="str">
+        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
+        <v>0 of file, refer please.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="str">
+        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
+        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="str">
+        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
+        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="str">
+        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
+        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="str">
+        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
+        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="str">
+        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="str">
+        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="str">
+        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
+        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="str">
+        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
+        <v>0                                                                 0</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="str">
+        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
+        <v>0                                                                                                           0</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f>'PC 1'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8DADB-8654-484E-8A8B-828C7BD46CCD}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -5980,7 +6210,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -6006,12 +6236,12 @@
     </row>
     <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -6021,7 +6251,7 @@
     </row>
     <row r="12" spans="1:1" ht="95.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
@@ -6029,7 +6259,7 @@
     </row>
     <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -6042,58 +6272,58 @@
     </row>
     <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -6103,7 +6333,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -6111,7 +6341,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>52</v>
@@ -6127,7 +6357,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -6145,7 +6375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6167,7 +6397,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6203,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6225,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6261,7 +6491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD72520-7D13-4DAD-A6E2-EECE75658B4A}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -6283,7 +6513,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6319,7 +6549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6443,7 +6673,7 @@
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" s="245" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" s="245"/>
       <c r="C15" s="245"/>
@@ -6479,16 +6709,16 @@
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -6549,7 +6779,7 @@
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="250" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="250"/>
       <c r="C25" s="250"/>
@@ -6563,7 +6793,7 @@
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="242" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" s="242"/>
       <c r="C27" s="242"/>
@@ -6577,7 +6807,7 @@
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" s="246" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="246"/>
       <c r="C29" s="246"/>
@@ -6585,7 +6815,7 @@
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="246" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" s="246"/>
       <c r="C30" s="246"/>
@@ -6644,7 +6874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598283F2-9EBB-4927-952C-BF1802CE591A}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6768,7 +6998,7 @@
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" s="245" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" s="245"/>
       <c r="C15" s="245"/>
@@ -6804,16 +7034,16 @@
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -6874,7 +7104,7 @@
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="250" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="250"/>
       <c r="C25" s="250"/>
@@ -6888,7 +7118,7 @@
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="242" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" s="242"/>
       <c r="C27" s="242"/>
@@ -6902,7 +7132,7 @@
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" s="246" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="246"/>
       <c r="C29" s="246"/>
@@ -6910,7 +7140,7 @@
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="246" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" s="246"/>
       <c r="C30" s="246"/>
@@ -6970,6 +7200,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A501C249-59A6-4B45-8695-E9AAD023406F}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
@@ -7016,7 +7291,7 @@
     </row>
     <row r="3" spans="1:9" s="126" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="124">
         <f>DETAILS!B11</f>
@@ -7028,7 +7303,7 @@
     </row>
     <row r="4" spans="1:9" s="122" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="127">
         <f>D4*B2</f>
@@ -7110,7 +7385,7 @@
     </row>
     <row r="10" spans="1:9" s="122" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="127">
         <f>B4*D10</f>
@@ -7162,7 +7437,7 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="43">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -7275,7 +7550,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!B25</f>
@@ -7306,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!B27</f>
@@ -7340,7 +7615,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!B29</f>
@@ -7412,7 +7687,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="44">
         <f>DETAILS!B35</f>
@@ -7424,7 +7699,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="44">
         <f>DETAILS!B36</f>
@@ -7436,7 +7711,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="48">
         <f>DETAILS!B24</f>
@@ -7448,7 +7723,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="49">
         <f>DETAILS!B56</f>
@@ -7460,7 +7735,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="44">
         <f>DETAILS!B40</f>
@@ -7472,7 +7747,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="44">
         <f>DETAILS!B41</f>
@@ -7484,7 +7759,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="44">
         <f>DETAILS!B42</f>
@@ -7496,7 +7771,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="44">
         <f>DETAILS!B43</f>
@@ -7508,7 +7783,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="44">
         <f>DETAILS!B44</f>
@@ -7520,7 +7795,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="44">
         <f>DETAILS!B46</f>
@@ -7532,7 +7807,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="44">
         <f>DETAILS!B47</f>
@@ -7544,7 +7819,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="44">
         <f>DETAILS!B48</f>
@@ -7556,7 +7831,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="44">
         <f>DETAILS!B49</f>
@@ -7568,7 +7843,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="44">
         <f>DETAILS!B50</f>
@@ -7592,7 +7867,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="44">
         <f>DETAILS!B52</f>
@@ -7604,7 +7879,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="44">
         <f>DETAILS!B53</f>
@@ -7628,7 +7903,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="44">
         <f>DETAILS!B55</f>
@@ -7640,7 +7915,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="50">
         <f>DETAILS!B45</f>
@@ -7652,7 +7927,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="50">
         <f>DETAILS!B57</f>
@@ -7664,7 +7939,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" s="50">
         <f>DETAILS!B58</f>
@@ -7673,7 +7948,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="45">
         <f>DETAILS!B62</f>
@@ -7682,7 +7957,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="44">
         <f>DETAILS!B63</f>
@@ -7691,7 +7966,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="44" t="str">
         <f>DETAILS!B64</f>
@@ -7700,7 +7975,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="44">
         <f>DETAILS!B65</f>
@@ -7709,7 +7984,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="44">
         <f>DETAILS!B66</f>
@@ -7718,7 +7993,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="44">
         <f>DETAILS!B67</f>
@@ -7727,7 +8002,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="44">
         <f>DETAILS!B68</f>
@@ -7736,7 +8011,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="44">
         <f>DETAILS!B69</f>
@@ -7750,7 +8025,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B68" s="64">
         <f>DETAILS!B73</f>
@@ -7759,7 +8034,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="64">
         <f>DETAILS!B74</f>
@@ -7768,7 +8043,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="64">
         <f>DETAILS!B75</f>
@@ -7777,7 +8052,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" s="64">
         <f>DETAILS!B76</f>
@@ -7793,7 +8068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7839,7 +8114,7 @@
     </row>
     <row r="3" spans="1:9" s="103" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="101">
         <f>DETAILS!E11</f>
@@ -7851,7 +8126,7 @@
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="104">
         <f>D4*B2</f>
@@ -7933,7 +8208,7 @@
     </row>
     <row r="10" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="104">
         <f>B4*D10</f>
@@ -7985,7 +8260,7 @@
     </row>
     <row r="14" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="113">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -8098,7 +8373,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!E25</f>
@@ -8129,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!E27</f>
@@ -8163,7 +8438,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!E29</f>
@@ -8235,7 +8510,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="114">
         <f>DETAILS!E35</f>
@@ -8247,7 +8522,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="114">
         <f>DETAILS!E36</f>
@@ -8259,7 +8534,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="115">
         <f>DETAILS!E24</f>
@@ -8271,7 +8546,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="116">
         <f>DETAILS!E56</f>
@@ -8283,7 +8558,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="114">
         <f>DETAILS!E40</f>
@@ -8295,7 +8570,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="114">
         <f>DETAILS!E41</f>
@@ -8307,7 +8582,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="114">
         <f>DETAILS!E42</f>
@@ -8319,7 +8594,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="114">
         <f>DETAILS!E43</f>
@@ -8331,7 +8606,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="114">
         <f>DETAILS!E44</f>
@@ -8343,7 +8618,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="114">
         <f>DETAILS!E46</f>
@@ -8355,7 +8630,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="114">
         <f>DETAILS!E47</f>
@@ -8367,7 +8642,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="114">
         <f>DETAILS!E48</f>
@@ -8379,7 +8654,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="114">
         <f>DETAILS!E49</f>
@@ -8391,7 +8666,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="114">
         <f>DETAILS!E50</f>
@@ -8415,7 +8690,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="114">
         <f>DETAILS!E52</f>
@@ -8427,7 +8702,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="114">
         <f>DETAILS!E53</f>
@@ -8451,7 +8726,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="114">
         <f>DETAILS!E55</f>
@@ -8463,7 +8738,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="117">
         <f>DETAILS!E45</f>
@@ -8475,7 +8750,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="117">
         <f>DETAILS!E57</f>
@@ -8487,7 +8762,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" s="117">
         <f>DETAILS!E58</f>
@@ -8496,7 +8771,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="118">
         <f>DETAILS!E62</f>
@@ -8505,7 +8780,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="114">
         <f>DETAILS!E63</f>
@@ -8514,7 +8789,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="114">
         <f>DETAILS!E64</f>
@@ -8523,7 +8798,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="114">
         <f>DETAILS!E65</f>
@@ -8532,7 +8807,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="114">
         <f>DETAILS!E66</f>
@@ -8541,7 +8816,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="114">
         <f>DETAILS!E67</f>
@@ -8550,7 +8825,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="114">
         <f>DETAILS!E68</f>
@@ -8559,7 +8834,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="114">
         <f>DETAILS!E69</f>
@@ -8575,7 +8850,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!E73</f>
@@ -8584,7 +8859,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!E74</f>
@@ -8593,7 +8868,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!E75</f>
@@ -8602,7 +8877,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!E76</f>
@@ -8619,7 +8894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B174F-D5E2-4CA4-83B3-17D34B5C5BF6}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8665,7 +8940,7 @@
     </row>
     <row r="3" spans="1:9" s="103" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="101">
         <f>DETAILS!H11</f>
@@ -8677,7 +8952,7 @@
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="104">
         <f>D4*B2</f>
@@ -8759,7 +9034,7 @@
     </row>
     <row r="10" spans="1:9" s="99" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="104">
         <f>B4*D10</f>
@@ -8811,7 +9086,7 @@
     </row>
     <row r="14" spans="1:9" s="99" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="113">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -8924,7 +9199,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="44">
         <f>DETAILS!H25</f>
@@ -8955,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="59">
         <f>DETAILS!H27</f>
@@ -8989,7 +9264,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="44">
         <f>DETAILS!H29</f>
@@ -9061,7 +9336,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="114">
         <f>DETAILS!H35</f>
@@ -9073,7 +9348,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="114">
         <f>DETAILS!H36</f>
@@ -9085,7 +9360,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="115">
         <f>DETAILS!H24</f>
@@ -9097,7 +9372,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="116">
         <f>DETAILS!H56</f>
@@ -9109,7 +9384,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="114">
         <f>DETAILS!H40</f>
@@ -9121,7 +9396,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="114">
         <f>DETAILS!H41</f>
@@ -9133,7 +9408,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="114">
         <f>DETAILS!H42</f>
@@ -9145,7 +9420,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="114">
         <f>DETAILS!H43</f>
@@ -9157,7 +9432,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="114">
         <f>DETAILS!H44</f>
@@ -9169,7 +9444,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="114">
         <f>DETAILS!H46</f>
@@ -9181,7 +9456,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="114">
         <f>DETAILS!H47</f>
@@ -9193,7 +9468,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="114">
         <f>DETAILS!H48</f>
@@ -9205,7 +9480,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="114">
         <f>DETAILS!H49</f>
@@ -9217,7 +9492,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="114">
         <f>DETAILS!H50</f>
@@ -9241,7 +9516,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="114">
         <f>DETAILS!H52</f>
@@ -9253,7 +9528,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="114">
         <f>DETAILS!H53</f>
@@ -9277,7 +9552,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="114">
         <f>DETAILS!H55</f>
@@ -9289,7 +9564,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="117">
         <f>DETAILS!H45</f>
@@ -9301,7 +9576,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="117">
         <f>DETAILS!H57</f>
@@ -9313,7 +9588,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" s="117">
         <f>DETAILS!H58</f>
@@ -9322,7 +9597,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="118">
         <f>DETAILS!H62</f>
@@ -9331,7 +9606,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="114">
         <f>DETAILS!H63</f>
@@ -9340,7 +9615,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="114">
         <f>DETAILS!H64</f>
@@ -9349,7 +9624,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="114">
         <f>DETAILS!H65</f>
@@ -9358,7 +9633,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="114">
         <f>DETAILS!H66</f>
@@ -9367,7 +9642,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="114">
         <f>DETAILS!H67</f>
@@ -9376,7 +9651,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="114">
         <f>DETAILS!H68</f>
@@ -9385,7 +9660,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="114">
         <f>DETAILS!H69</f>
@@ -9401,7 +9676,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!H73</f>
@@ -9410,7 +9685,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!H74</f>
@@ -9419,7 +9694,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!H75</f>
@@ -9428,7 +9703,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!H76</f>
@@ -9445,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF0070C0"/>
@@ -9663,7 +9938,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" s="199">
         <f>'PC 1'!D27</f>
@@ -9771,7 +10046,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 1'!B3</f>
@@ -9912,7 +10187,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -9930,7 +10205,7 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -10329,7 +10604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -10655,7 +10930,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 2'!B3</f>
@@ -10796,7 +11071,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -10814,7 +11089,7 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -11200,7 +11475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE98A78-1323-47C4-A6E8-D9B7B2EDB5E9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -11526,7 +11801,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="184">
         <f>'PC 3'!B3</f>
@@ -11667,7 +11942,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -11685,7 +11960,7 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -12071,7 +12346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -12079,7 +12354,7 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A39" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
@@ -12144,7 +12419,7 @@
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="235">
         <f>'PC 1'!B23</f>
@@ -12164,7 +12439,7 @@
     </row>
     <row r="6" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="235">
         <f>'PC 2'!B23</f>
@@ -12179,7 +12454,7 @@
     </row>
     <row r="7" spans="1:8" s="136" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A7" s="166" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" s="235">
         <f>'PC 3'!B23</f>
@@ -12194,7 +12469,7 @@
     </row>
     <row r="8" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
       <c r="A8" s="166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="235">
         <f>'PC 1'!B20</f>
@@ -12205,7 +12480,7 @@
       <c r="E8" s="235"/>
       <c r="F8" s="235"/>
       <c r="G8" s="139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="137" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27 &amp; "/" &amp; 'PC 3'!B27</f>
@@ -12225,7 +12500,7 @@
       <c r="E9" s="236"/>
       <c r="F9" s="236"/>
       <c r="G9" s="139" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H9" s="137" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30 &amp; "/" &amp; 'PC 3'!B30</f>
@@ -12234,7 +12509,7 @@
     </row>
     <row r="10" spans="1:8" s="136" customFormat="1" ht="96.6" x14ac:dyDescent="0.85">
       <c r="A10" s="166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B10" s="237" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22&amp; "/" &amp; 'PC 3'!B22</f>
@@ -12248,7 +12523,7 @@
         <v>113</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="136" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.85">
@@ -12264,7 +12539,7 @@
       <c r="E11" s="236"/>
       <c r="F11" s="236"/>
       <c r="G11" s="139" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H11" s="137" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1&amp; "/" &amp; 'PC 3'!B1</f>
@@ -12276,7 +12551,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="236" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="236"/>
       <c r="D12" s="236"/>
@@ -12304,7 +12579,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="207" t="s">
         <v>60</v>
@@ -12319,7 +12594,7 @@
       <c r="C15" s="225"/>
       <c r="D15" s="226"/>
       <c r="E15" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="218" t="str">
@@ -12336,7 +12611,7 @@
       <c r="C16" s="225"/>
       <c r="D16" s="226"/>
       <c r="E16" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="141"/>
       <c r="G16" s="218" t="str">
@@ -12353,7 +12628,7 @@
       <c r="C17" s="225"/>
       <c r="D17" s="226"/>
       <c r="E17" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="218" t="str">
@@ -12370,7 +12645,7 @@
       <c r="C18" s="225"/>
       <c r="D18" s="226"/>
       <c r="E18" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="141"/>
       <c r="G18" s="218" t="str">
@@ -12388,7 +12663,7 @@
       <c r="C19" s="225"/>
       <c r="D19" s="226"/>
       <c r="E19" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="141"/>
       <c r="G19" s="218" t="str">
@@ -12399,14 +12674,14 @@
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A20" s="224" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="225"/>
       <c r="C20" s="225"/>
       <c r="D20" s="226"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="218" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
@@ -12423,7 +12698,7 @@
       <c r="D21" s="226"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21" s="218" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
@@ -12433,7 +12708,7 @@
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A22" s="224" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="225"/>
       <c r="C22" s="225"/>
@@ -12455,7 +12730,7 @@
       <c r="D23" s="226"/>
       <c r="E23" s="141"/>
       <c r="F23" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" s="218" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
@@ -12480,7 +12755,7 @@
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A25" s="142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="227">
         <f>'PC 1'!B25</f>
@@ -12507,7 +12782,7 @@
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="218" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="220"/>
       <c r="C27" s="220"/>
@@ -12521,7 +12796,7 @@
     </row>
     <row r="28" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A28" s="218" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="220"/>
       <c r="C28" s="220"/>
@@ -12623,7 +12898,7 @@
       <c r="C35" s="216"/>
       <c r="D35" s="216"/>
       <c r="E35" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" s="144"/>
       <c r="G35" s="218"/>
@@ -12661,7 +12936,7 @@
       <c r="C38" s="216"/>
       <c r="D38" s="216"/>
       <c r="E38" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="146"/>
       <c r="G38" s="207"/>
@@ -12675,7 +12950,7 @@
       <c r="C39" s="216"/>
       <c r="D39" s="216"/>
       <c r="E39" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" s="144"/>
       <c r="G39" s="218"/>
@@ -12719,7 +12994,7 @@
       <c r="C42" s="209"/>
       <c r="D42" s="210"/>
       <c r="E42" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F42" s="141"/>
       <c r="G42" s="207"/>
@@ -12735,32 +13010,29 @@
       <c r="A44" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="149"/>
       <c r="E44" s="148"/>
       <c r="F44" s="148"/>
-      <c r="G44" s="252" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="252"/>
+      <c r="G44" s="251" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="251"/>
     </row>
     <row r="45" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A45" s="148">
         <f>'PC 1'!B68</f>
         <v>0</v>
       </c>
-      <c r="E45" s="251"/>
-      <c r="G45" s="252">
+      <c r="G45" s="251">
         <f>'PC 1'!B70</f>
         <v>0</v>
       </c>
-      <c r="H45" s="252"/>
+      <c r="H45" s="251"/>
     </row>
     <row r="46" spans="1:10" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A46" s="148">
         <f>'PC 1'!B69</f>
         <v>0</v>
       </c>
-      <c r="D46" s="148"/>
       <c r="E46" s="148"/>
       <c r="F46" s="148"/>
       <c r="G46" s="252">
@@ -12854,201 +13126,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
-  <sheetPr codeName="Sheet5">
-    <tabColor theme="5" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15">
-        <f>'PC 1'!B56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="40" t="str">
-        <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; ", " &amp; 'PC 2'!B24 &amp; " AND " &amp; 'PC 3'!B24 &amp; "."</f>
-        <v>REPORT OF SITE INSPECTION ON THE 0, 0 AND 0.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="str">
-        <f>'PC 1'!B39 &amp; " of file, refer please."</f>
-        <v>0 of file, refer please.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="194.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="str">
-        <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; ". Project 2 includes " &amp; 'PC 2'!B38 &amp; ". Project 3 includes " &amp; 'PC 3'!B38</f>
-        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0. Project 2 includes 0. Project 3 includes 0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="str">
-        <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
-        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="str">
-        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
-        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="str">
-        <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
-        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="str">
-        <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="str">
-        <f>"•    Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="str">
-        <f>"•    Project 3: " &amp; 'PC 3'!A18 &amp; " in favour of " &amp; 'PC 3'!B22 &amp; ". This represents " &amp; 'PC 3'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 3: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="str">
-        <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
-        <v>0                                                                 0</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="str">
-        <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
-        <v>0                                                                                                           0</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f>'PC 1'!B36</f>
-        <v>0</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>